--- a/phoneme-system-comparision/mandarin-xsampa-ipa-revised.xlsx
+++ b/phoneme-system-comparision/mandarin-xsampa-ipa-revised.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VITS-tacotron2\SingingVoice-MFA-Training\SingingVoice-MFA-Training\phoneme-system-comparision\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{524617A6-4BA1-4B46-994B-B88FCA9E448F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E3542C2-CAED-4642-9868-5EDCE0B90925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4694" uniqueCount="2047">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5589" uniqueCount="2241">
   <si>
     <t>拼音</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -6106,26 +6106,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ie</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>uo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ua</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>a n</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ua n</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>/ai̯/</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -6146,23 +6130,323 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>元音尾韵切介音</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>/a</t>
+    </r>
     <r>
       <rPr>
-        <sz val="9"/>
+        <sz val="10"/>
         <color rgb="FF202122"/>
-        <rFont val="等线"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>开韵尾不进行切分</t>
+      <t>ŋ</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>元音尾韵切介音</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>鼻尾韵切鼻韵尾</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF202122"/>
+        <rFont val="Charis SIL"/>
+      </rPr>
+      <t>/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF202122"/>
+        <rFont val="Charis SIL"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ŋ</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>/i̯a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ŋ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF202122"/>
+        <rFont val="Charis SIL"/>
+      </rPr>
+      <t>/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ia </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF202122"/>
+        <rFont val="Charis SIL"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ŋ</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>/u̯a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ŋ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF202122"/>
+        <rFont val="Charis SIL"/>
+      </rPr>
+      <t>/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ua </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF202122"/>
+        <rFont val="Charis SIL"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ŋ</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>/ə</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ŋ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF202122"/>
+        <rFont val="Charis SIL"/>
+      </rPr>
+      <t>/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ə </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF202122"/>
+        <rFont val="Charis SIL"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ŋ</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>/i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ŋ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF202122"/>
+        <rFont val="Charis SIL"/>
+      </rPr>
+      <t>/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">i </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF202122"/>
+        <rFont val="Charis SIL"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ŋ</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>/u̯ə</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ŋ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF202122"/>
+        <rFont val="Charis SIL"/>
+      </rPr>
+      <t>/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">uə </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF202122"/>
+        <rFont val="Charis SIL"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ŋ</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>/ʊ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ŋ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF202122"/>
+        <rFont val="Charis SIL"/>
+      </rPr>
+      <t>/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ʊ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF202122"/>
+        <rFont val="Charis SIL"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ŋ</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>/i̯ʊ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ŋ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF202122"/>
+        <rFont val="Charis SIL"/>
+      </rPr>
+      <t>/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">iʊ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF202122"/>
+        <rFont val="Charis SIL"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ŋ</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ən/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>un</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ün</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -6186,21 +6470,1118 @@
       </rPr>
       <t>/ɯ/</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>iɛ</t>
+      <t>a</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FF202122"/>
-        <rFont val="宋体"/>
+        <rFont val="Charis SIL"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ŋ</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF202122"/>
+        <rFont val="Charis SIL"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ŋ</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>u a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF202122"/>
+        <rFont val="Charis SIL"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ŋ</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ə</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF202122"/>
+        <rFont val="Charis SIL"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ŋ</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>u ə</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF202122"/>
+        <rFont val="Charis SIL"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ŋ</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ʊ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF202122"/>
+        <rFont val="Charis SIL"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ŋ</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i ʊ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF202122"/>
+        <rFont val="Charis SIL"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ŋ</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼻尾韵切介音</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>in</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Charis SIL"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ŋ</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>yn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开韵尾切介音</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>i e</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>i a</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>u a</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>u o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>y e</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a i</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>e i</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a u</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>o u</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>红色为规则外切分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>塞音</t>
+  </si>
+  <si>
+    <t>塞擦音</t>
+  </si>
+  <si>
+    <t>擦音</t>
+  </si>
+  <si>
+    <t>鼻音</t>
+  </si>
+  <si>
+    <t>边音</t>
+  </si>
+  <si>
+    <t>清音</t>
+  </si>
+  <si>
+    <t>浊音</t>
+  </si>
+  <si>
+    <t>/pʰ/</t>
+  </si>
+  <si>
+    <t>/s/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Charis SIL"/>
+      </rPr>
+      <t>m/</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">b </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF202122"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ㄅ</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">p </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ㄆ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">m </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ㄇ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Charis SIL"/>
+      </rPr>
+      <t>f/</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">f </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ㄈ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Charis SIL"/>
+      </rPr>
+      <t>t/</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Charis SIL"/>
+      </rPr>
+      <t>tʰ/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Charis SIL"/>
+      </rPr>
+      <t>ts/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Charis SIL"/>
+      </rPr>
+      <t>tsʰ/</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Charis SIL"/>
+      </rPr>
+      <t>n/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Charis SIL"/>
+      </rPr>
+      <t>l/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">d </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ㄉ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">t </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ㄊ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">z </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ㄗ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">c </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ㄘ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">s </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ㄙ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ㄋ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">l </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ㄌ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Charis SIL"/>
+      </rPr>
+      <t>ʈʂ/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Charis SIL"/>
+      </rPr>
+      <t>ʈʂʰ/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Charis SIL"/>
+      </rPr>
+      <t>ʂ/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Charis SIL"/>
+      </rPr>
+      <t>ʐ/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">zh </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ㄓ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ch </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ㄔ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">sh </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ㄕ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">r </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ㄖ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Charis SIL"/>
+      </rPr>
+      <t>tɕ/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Charis SIL"/>
+      </rPr>
+      <t>tɕʰ/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Charis SIL"/>
+      </rPr>
+      <t>ɕ/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">j </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ㄐ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">q </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ㄑ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">x </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ㄒ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Charis SIL"/>
+      </rPr>
+      <t>k/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Charis SIL"/>
+      </rPr>
+      <t>kʰ/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Charis SIL"/>
+      </rPr>
+      <t>x/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">g </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ㄍ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">k </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ㄎ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">h </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ㄏ</t>
+    </r>
+  </si>
+  <si>
+    <t>/p/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>双唇音</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>唇齿音</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>齿龈音</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卷舌音</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>龈颚音</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>软颚音</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬腭音</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/j/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>唇-硬腭音</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ɥ/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>唇-软腭音</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/w/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ʔ/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ɨ/ /ɯ/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>声门音</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/j/适配零声母i介音韵母</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>ɥ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/适配零声母y介音韵母</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>w</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t>/适配零声母u介音韵母</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>i a i</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>i a u</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>i o u</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>u a i</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>u e i</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>u a n</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">u a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF202122"/>
+        <rFont val="Charis SIL"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ŋ</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">i a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF202122"/>
+        <rFont val="Charis SIL"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ŋ</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">i ʊ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF202122"/>
+        <rFont val="Charis SIL"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ŋ</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>韵母部分为三段式设计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>切分为韵头韵腹韵尾三部分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t>ʔ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/适配零声母无介音韵母</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>元音尾韵切韵尾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼻尾韵切韵尾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ia i</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ia u</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>io u</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">i </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Charis SIL"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ŋ</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ua n</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ue i</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ua i</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ie</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ua</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>uo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>为提高合成阶段可调性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a |ʔ a</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ɤ|ʔ ɤ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a n|ʔ a n</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ə n|ʔ ə n</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>i ɛ n</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>yɛ n</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>y ɛ n</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ə n</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>u ə n</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">u ə </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF202122"/>
+        <rFont val="Charis SIL"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ŋ</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iɛ n</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>uə n</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF202122"/>
+        <rFont val="Charis SIL"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ŋ</t>
     </r>
     <r>
       <rPr>
@@ -6208,23 +7589,151 @@
         <color rgb="FF202122"/>
         <rFont val="Charis SIL"/>
       </rPr>
-      <t>n</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>yɛ</t>
+      <t xml:space="preserve">|ʔ a </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FF202122"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>ŋ</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MFA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>j a</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>j e</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>j ɛ n</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">j a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF202122"/>
+        <rFont val="Charis SIL"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t>ŋ</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">j ʊ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF202122"/>
+        <rFont val="Charis SIL"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ŋ</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>w o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>w a</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>w a n</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">w a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF202122"/>
+        <rFont val="Charis SIL"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ŋ</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">w ə </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF202122"/>
+        <rFont val="Charis SIL"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ŋ</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ɥ ɛ n</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ɥ e</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>u</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>废弃方案：介音版</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>废弃方案：韵尾版</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>废弃方案：混合版</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开韵尾切韵尾(无)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>/ʊ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ŋ</t>
     </r>
     <r>
       <rPr>
@@ -6232,23 +7741,54 @@
         <color rgb="FF202122"/>
         <rFont val="Charis SIL"/>
       </rPr>
-      <t>n</t>
+      <t>/</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>/a/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/u̯a/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ɤ/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/i̯e/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/u̯o/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/y̯e/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>üe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>ə</t>
+      <t>/ɨ/</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FF202122"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t>、</t>
     </r>
     <r>
       <rPr>
@@ -6256,32 +7796,148 @@
         <color rgb="FF202122"/>
         <rFont val="Charis SIL"/>
       </rPr>
-      <t>n</t>
+      <t>/ɯ/</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>uə</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF202122"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF202122"/>
-        <rFont val="Charis SIL"/>
-      </rPr>
-      <t>n</t>
-    </r>
+    <t>-i</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/i/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/u/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/y/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ü</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/i̯ai̯/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iai</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/u̯ai̯/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>uai</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ei̯/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/u̯ei̯/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/au̯/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ao</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>au</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/i̯au̯/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iao</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iau</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ou̯/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ou</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/i̯ou̯/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/aɚ̯/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>er</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/an/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/i̯ɛn/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ian</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/u̯an/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>uan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/y̯ɛn/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>üan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>en</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/in/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/u̯ən/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/yn/</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -6305,21 +7961,10 @@
       </rPr>
       <t>/</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">a </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF202122"/>
-        <rFont val="Charis SIL"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ŋ</t>
-    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ang</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -6343,21 +7988,10 @@
       </rPr>
       <t>/</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ia </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF202122"/>
-        <rFont val="Charis SIL"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ŋ</t>
-    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iang</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -6381,21 +8015,10 @@
       </rPr>
       <t>/</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ua </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF202122"/>
-        <rFont val="Charis SIL"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ŋ</t>
-    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>uang</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -6419,47 +8042,10 @@
       </rPr>
       <t>/</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ə </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF202122"/>
-        <rFont val="Charis SIL"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ŋ</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>ə</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF202122"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF202122"/>
-        <rFont val="Charis SIL"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ŋ</t>
-    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>eng</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -6483,21 +8069,10 @@
       </rPr>
       <t>/</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">i </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF202122"/>
-        <rFont val="Charis SIL"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ŋ</t>
-    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ing</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -6521,111 +8096,14 @@
       </rPr>
       <t>/</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">uə </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF202122"/>
-        <rFont val="Charis SIL"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ŋ</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>uə</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF202122"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF202122"/>
-        <rFont val="Charis SIL"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ŋ</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>/ʊ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF202122"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ŋ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF202122"/>
-        <rFont val="Charis SIL"/>
-      </rPr>
-      <t>/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ʊ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF202122"/>
-        <rFont val="Charis SIL"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ŋ</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>ʊ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF202122"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF202122"/>
-        <rFont val="Charis SIL"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ŋ</t>
-    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ueng</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ong</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -6649,10 +8127,31 @@
       </rPr>
       <t>/</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iong</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>废弃方案：MFA 2.0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼻尾韵切介音和韵尾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>介音弱化为半元音</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以与独立元音区分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">iʊ </t>
+      <t xml:space="preserve">ə </t>
     </r>
     <r>
       <rPr>
@@ -6664,11 +8163,75 @@
       </rPr>
       <t>ŋ</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
-      <t>iʊ</t>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF202122"/>
+        <rFont val="Charis SIL"/>
+      </rPr>
+      <t>|ʔ ə ŋ</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ʊ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF202122"/>
+        <rFont val="Charis SIL"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ŋ|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF202122"/>
+        <rFont val="Charis SIL"/>
+      </rPr>
+      <t>ʔ ʊ ŋ</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>j ai</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ai|ʔ a i</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>au|ʔ a u</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ou|ʔ o u</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>j au</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>j ou</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>w ai</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>w ei</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>w ə</t>
     </r>
     <r>
       <rPr>
@@ -6685,185 +8248,9 @@
         <sz val="10"/>
         <color rgb="FF202122"/>
         <rFont val="Charis SIL"/>
-        <family val="2"/>
-        <charset val="134"/>
       </rPr>
-      <t>ŋ</t>
+      <t>n</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/ən/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>un</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ün</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>/ɨ/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF202122"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF202122"/>
-        <rFont val="Charis SIL"/>
-      </rPr>
-      <t>/ɯ/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF202122"/>
-        <rFont val="Charis SIL"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ŋ</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>i a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF202122"/>
-        <rFont val="Charis SIL"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ŋ</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>u a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF202122"/>
-        <rFont val="Charis SIL"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ŋ</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>ə</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF202122"/>
-        <rFont val="Charis SIL"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ŋ</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>u ə</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF202122"/>
-        <rFont val="Charis SIL"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ŋ</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>ʊ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF202122"/>
-        <rFont val="Charis SIL"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ŋ</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>i ʊ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF202122"/>
-        <rFont val="Charis SIL"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ŋ</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>鼻尾韵切介音</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>in</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Charis SIL"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ŋ</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>yn</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -6871,7 +8258,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6924,13 +8311,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FF202122"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF202122"/>
       <name val="Charis SIL"/>
       <family val="2"/>
       <charset val="134"/>
@@ -6953,6 +8333,85 @@
       <color rgb="FFFF0000"/>
       <name val="Charis SIL"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Charis SIL"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF202122"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF202122"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="MS Gothic"/>
+      <family val="3"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF202122"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Charis SIL"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Charis SIL"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF202122"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF202122"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -7165,7 +8624,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7204,18 +8663,37 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7229,8 +8707,17 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7514,7 +9001,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H717"/>
   <sheetViews>
-    <sheetView topLeftCell="A705" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A567" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="I143" sqref="I143"/>
     </sheetView>
   </sheetViews>
@@ -21877,16 +23364,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C53B8B-BB9A-45A4-A2A3-C24DB08DB2BC}">
-  <dimension ref="A1:Q45"/>
+  <dimension ref="A1:AJ149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="R41" sqref="R41"/>
+    <sheetView tabSelected="1" topLeftCell="H4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AJ6" sqref="AJ6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" customWidth="1"/>
     <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.44140625" bestFit="1" customWidth="1"/>
@@ -21896,40 +23383,82 @@
     <col min="10" max="10" width="5.77734375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7" customWidth="1"/>
+    <col min="14" max="14" width="5.77734375" customWidth="1"/>
     <col min="15" max="15" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.44140625" customWidth="1"/>
+    <col min="17" max="17" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.109375" customWidth="1"/>
+    <col min="19" max="19" width="6.5546875" customWidth="1"/>
+    <col min="20" max="20" width="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="6.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="17" t="s">
+    <row r="1" spans="1:36" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="33" t="s">
         <v>1876</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="22" t="s">
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="29" t="s">
         <v>1877</v>
       </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
       <c r="I1" s="5"/>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="26" t="s">
         <v>1878</v>
       </c>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="19" t="s">
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="26" t="s">
         <v>1879</v>
       </c>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="21"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="28"/>
+      <c r="U1" s="26" t="s">
+        <v>1876</v>
+      </c>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="26" t="s">
+        <v>1877</v>
+      </c>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="26" t="s">
+        <v>1878</v>
+      </c>
+      <c r="AD1" s="27"/>
+      <c r="AE1" s="27"/>
+      <c r="AF1" s="28"/>
+      <c r="AG1" s="26" t="s">
+        <v>1879</v>
+      </c>
+      <c r="AH1" s="27"/>
+      <c r="AI1" s="27"/>
+      <c r="AJ1" s="28"/>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
         <v>1880</v>
       </c>
@@ -21943,10 +23472,10 @@
         <v>1983</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>2001</v>
+        <v>1997</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>1975</v>
@@ -21955,10 +23484,10 @@
         <v>1983</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>2001</v>
+        <v>1997</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>1975</v>
@@ -21967,10 +23496,10 @@
         <v>1983</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>2001</v>
+        <v>1997</v>
       </c>
       <c r="P2" s="6" t="s">
         <v>1975</v>
@@ -21978,8 +23507,56 @@
       <c r="Q2" s="6" t="s">
         <v>1983</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U2" s="6" t="s">
+        <v>1880</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>1882</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>1975</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>2148</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>1996</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>1997</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>1975</v>
+      </c>
+      <c r="AB2" s="6" t="s">
+        <v>2148</v>
+      </c>
+      <c r="AC2" s="6" t="s">
+        <v>1996</v>
+      </c>
+      <c r="AD2" s="6" t="s">
+        <v>1997</v>
+      </c>
+      <c r="AE2" s="6" t="s">
+        <v>1975</v>
+      </c>
+      <c r="AF2" s="6" t="s">
+        <v>1983</v>
+      </c>
+      <c r="AG2" s="6" t="s">
+        <v>1996</v>
+      </c>
+      <c r="AH2" s="6" t="s">
+        <v>1997</v>
+      </c>
+      <c r="AI2" s="6" t="s">
+        <v>1975</v>
+      </c>
+      <c r="AJ2" s="6" t="s">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>1881</v>
       </c>
@@ -21993,7 +23570,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>2002</v>
+        <v>1998</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>0</v>
@@ -22005,7 +23582,7 @@
         <v>2</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>2002</v>
+        <v>1998</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>0</v>
@@ -22017,7 +23594,7 @@
         <v>2</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>2002</v>
+        <v>1998</v>
       </c>
       <c r="O3" s="7" t="s">
         <v>0</v>
@@ -22028,8 +23605,56 @@
       <c r="Q3" s="7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U3" s="7" t="s">
+        <v>1881</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>1883</v>
+      </c>
+      <c r="W3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="X3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="7" t="s">
+        <v>1998</v>
+      </c>
+      <c r="Z3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC3" s="7" t="s">
+        <v>1998</v>
+      </c>
+      <c r="AD3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG3" s="7" t="s">
+        <v>1998</v>
+      </c>
+      <c r="AH3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ3" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>1884</v>
       </c>
@@ -22046,7 +23671,7 @@
         <v>1926</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>2003</v>
+        <v>1999</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>1757</v>
@@ -22054,8 +23679,8 @@
       <c r="H4" s="8" t="s">
         <v>1993</v>
       </c>
-      <c r="I4" s="8" t="s">
-        <v>1993</v>
+      <c r="I4" s="23" t="s">
+        <v>2034</v>
       </c>
       <c r="J4" s="8" t="s">
         <v>1889</v>
@@ -22066,15 +23691,58 @@
       <c r="L4" s="8" t="s">
         <v>1794</v>
       </c>
-      <c r="M4" s="8" t="s">
-        <v>1996</v>
+      <c r="M4" s="23" t="s">
+        <v>2035</v>
       </c>
       <c r="N4" s="10"/>
       <c r="O4" s="11"/>
       <c r="P4" s="11"/>
       <c r="Q4" s="11"/>
-    </row>
-    <row r="5" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T4" s="2" t="s">
+        <v>1884</v>
+      </c>
+      <c r="U4" s="9" t="s">
+        <v>1887</v>
+      </c>
+      <c r="V4" s="8" t="s">
+        <v>1713</v>
+      </c>
+      <c r="W4" s="8" t="s">
+        <v>1926</v>
+      </c>
+      <c r="X4" s="8" t="s">
+        <v>2135</v>
+      </c>
+      <c r="Y4" s="8" t="s">
+        <v>1999</v>
+      </c>
+      <c r="Z4" s="8" t="s">
+        <v>1757</v>
+      </c>
+      <c r="AA4" s="8" t="s">
+        <v>1993</v>
+      </c>
+      <c r="AB4" s="23" t="s">
+        <v>2149</v>
+      </c>
+      <c r="AC4" s="8" t="s">
+        <v>1889</v>
+      </c>
+      <c r="AD4" s="8" t="s">
+        <v>1794</v>
+      </c>
+      <c r="AE4" s="8" t="s">
+        <v>1794</v>
+      </c>
+      <c r="AF4" s="23" t="s">
+        <v>2155</v>
+      </c>
+      <c r="AG4" s="10"/>
+      <c r="AH4" s="11"/>
+      <c r="AI4" s="11"/>
+      <c r="AJ4" s="11"/>
+    </row>
+    <row r="5" spans="1:36" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>1885</v>
       </c>
@@ -22099,8 +23767,8 @@
       <c r="H5" s="8" t="s">
         <v>1765</v>
       </c>
-      <c r="I5" s="8" t="s">
-        <v>1994</v>
+      <c r="I5" s="23" t="s">
+        <v>2033</v>
       </c>
       <c r="J5" s="8" t="s">
         <v>1892</v>
@@ -22111,8 +23779,8 @@
       <c r="L5" s="8" t="s">
         <v>1797</v>
       </c>
-      <c r="M5" s="8" t="s">
-        <v>1995</v>
+      <c r="M5" s="23" t="s">
+        <v>2036</v>
       </c>
       <c r="N5" s="8" t="s">
         <v>1893</v>
@@ -22123,16 +23791,67 @@
       <c r="P5" s="8" t="s">
         <v>1970</v>
       </c>
-      <c r="Q5" s="8" t="s">
+      <c r="Q5" s="23" t="s">
+        <v>2037</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>1885</v>
+      </c>
+      <c r="U5" s="8" t="s">
+        <v>1890</v>
+      </c>
+      <c r="V5" s="8" t="s">
+        <v>1715</v>
+      </c>
+      <c r="W5" s="8" t="s">
+        <v>1932</v>
+      </c>
+      <c r="X5" s="8" t="s">
+        <v>2136</v>
+      </c>
+      <c r="Y5" s="8" t="s">
+        <v>1891</v>
+      </c>
+      <c r="Z5" s="8" t="s">
+        <v>1765</v>
+      </c>
+      <c r="AA5" s="8" t="s">
+        <v>1765</v>
+      </c>
+      <c r="AB5" s="23" t="s">
+        <v>2150</v>
+      </c>
+      <c r="AC5" s="8" t="s">
+        <v>1892</v>
+      </c>
+      <c r="AD5" s="8" t="s">
+        <v>1797</v>
+      </c>
+      <c r="AE5" s="8" t="s">
+        <v>1797</v>
+      </c>
+      <c r="AF5" s="23" t="s">
+        <v>2154</v>
+      </c>
+      <c r="AG5" s="8" t="s">
+        <v>1893</v>
+      </c>
+      <c r="AH5" s="8" t="s">
+        <v>1894</v>
+      </c>
+      <c r="AI5" s="8" t="s">
         <v>1970</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AJ5" s="23" t="s">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>1886</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>2007</v>
+        <v>2105</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>1895</v>
@@ -22165,7 +23884,7 @@
         <v>1748</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>1748</v>
+        <v>2161</v>
       </c>
       <c r="N6" s="8" t="s">
         <v>1898</v>
@@ -22179,8 +23898,59 @@
       <c r="Q6" s="8" t="s">
         <v>1971</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T6" s="4" t="s">
+        <v>1886</v>
+      </c>
+      <c r="U6" s="8" t="s">
+        <v>2105</v>
+      </c>
+      <c r="V6" s="8" t="s">
+        <v>1895</v>
+      </c>
+      <c r="W6" s="8" t="s">
+        <v>1944</v>
+      </c>
+      <c r="X6" s="8" t="s">
+        <v>1944</v>
+      </c>
+      <c r="Y6" s="8" t="s">
+        <v>1896</v>
+      </c>
+      <c r="Z6" s="8" t="s">
+        <v>1747</v>
+      </c>
+      <c r="AA6" s="8" t="s">
+        <v>1944</v>
+      </c>
+      <c r="AB6" s="8" t="s">
+        <v>1944</v>
+      </c>
+      <c r="AC6" s="8" t="s">
+        <v>1897</v>
+      </c>
+      <c r="AD6" s="8" t="s">
+        <v>1748</v>
+      </c>
+      <c r="AE6" s="8" t="s">
+        <v>1748</v>
+      </c>
+      <c r="AF6" s="8" t="s">
+        <v>1748</v>
+      </c>
+      <c r="AG6" s="8" t="s">
+        <v>1898</v>
+      </c>
+      <c r="AH6" s="8" t="s">
+        <v>1899</v>
+      </c>
+      <c r="AI6" s="8" t="s">
+        <v>1971</v>
+      </c>
+      <c r="AJ6" s="8" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1900</v>
       </c>
@@ -22194,7 +23964,7 @@
         <v>1719</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>1976</v>
+        <v>2038</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>1903</v>
@@ -22206,7 +23976,7 @@
         <v>1947</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>1979</v>
+        <v>2110</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>1904</v>
@@ -22218,14 +23988,57 @@
         <v>1957</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>1982</v>
-      </c>
-      <c r="N7" s="15"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
+        <v>2113</v>
+      </c>
+      <c r="N7" s="24"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
       <c r="Q7" s="11"/>
-    </row>
-    <row r="8" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T7" s="2" t="s">
+        <v>1900</v>
+      </c>
+      <c r="U7" s="8" t="s">
+        <v>1902</v>
+      </c>
+      <c r="V7" s="8" t="s">
+        <v>1717</v>
+      </c>
+      <c r="W7" s="8" t="s">
+        <v>1719</v>
+      </c>
+      <c r="X7" s="8" t="s">
+        <v>2233</v>
+      </c>
+      <c r="Y7" s="8" t="s">
+        <v>1903</v>
+      </c>
+      <c r="Z7" s="8" t="s">
+        <v>1769</v>
+      </c>
+      <c r="AA7" s="8" t="s">
+        <v>1947</v>
+      </c>
+      <c r="AB7" s="8" t="s">
+        <v>2232</v>
+      </c>
+      <c r="AC7" s="8" t="s">
+        <v>1904</v>
+      </c>
+      <c r="AD7" s="8" t="s">
+        <v>1801</v>
+      </c>
+      <c r="AE7" s="8" t="s">
+        <v>1957</v>
+      </c>
+      <c r="AF7" s="8" t="s">
+        <v>2238</v>
+      </c>
+      <c r="AG7" s="24"/>
+      <c r="AH7" s="25"/>
+      <c r="AI7" s="25"/>
+      <c r="AJ7" s="11"/>
+    </row>
+    <row r="8" spans="1:36" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>1901</v>
       </c>
@@ -22239,11 +24052,11 @@
         <v>1722</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>1977</v>
-      </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
+        <v>2039</v>
+      </c>
+      <c r="F8" s="24"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
       <c r="I8" s="11"/>
       <c r="J8" s="8" t="s">
         <v>1906</v>
@@ -22255,14 +24068,49 @@
         <v>1959</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>1984</v>
-      </c>
-      <c r="N8" s="15"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
+        <v>2114</v>
+      </c>
+      <c r="N8" s="24"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
       <c r="Q8" s="11"/>
-    </row>
-    <row r="9" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T8" s="3" t="s">
+        <v>1901</v>
+      </c>
+      <c r="U8" s="8" t="s">
+        <v>1905</v>
+      </c>
+      <c r="V8" s="8" t="s">
+        <v>1720</v>
+      </c>
+      <c r="W8" s="8" t="s">
+        <v>1722</v>
+      </c>
+      <c r="X8" s="8" t="s">
+        <v>1977</v>
+      </c>
+      <c r="Y8" s="24"/>
+      <c r="Z8" s="25"/>
+      <c r="AA8" s="25"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="8" t="s">
+        <v>1906</v>
+      </c>
+      <c r="AD8" s="8" t="s">
+        <v>1806</v>
+      </c>
+      <c r="AE8" s="8" t="s">
+        <v>1959</v>
+      </c>
+      <c r="AF8" s="8" t="s">
+        <v>2239</v>
+      </c>
+      <c r="AG8" s="24"/>
+      <c r="AH8" s="25"/>
+      <c r="AI8" s="25"/>
+      <c r="AJ8" s="11"/>
+    </row>
+    <row r="9" spans="1:36" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>1885</v>
       </c>
@@ -22276,7 +24124,7 @@
         <v>1725</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>1725</v>
+        <v>2040</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>1908</v>
@@ -22288,18 +24136,53 @@
         <v>1943</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>1980</v>
-      </c>
-      <c r="J9" s="15"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
+        <v>2111</v>
+      </c>
+      <c r="J9" s="24"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
       <c r="M9" s="11"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
       <c r="Q9" s="11"/>
-    </row>
-    <row r="10" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T9" s="3" t="s">
+        <v>1885</v>
+      </c>
+      <c r="U9" s="8" t="s">
+        <v>1907</v>
+      </c>
+      <c r="V9" s="8" t="s">
+        <v>1723</v>
+      </c>
+      <c r="W9" s="8" t="s">
+        <v>1725</v>
+      </c>
+      <c r="X9" s="8" t="s">
+        <v>2234</v>
+      </c>
+      <c r="Y9" s="8" t="s">
+        <v>1908</v>
+      </c>
+      <c r="Z9" s="8" t="s">
+        <v>1771</v>
+      </c>
+      <c r="AA9" s="8" t="s">
+        <v>1943</v>
+      </c>
+      <c r="AB9" s="8" t="s">
+        <v>2236</v>
+      </c>
+      <c r="AC9" s="24"/>
+      <c r="AD9" s="25"/>
+      <c r="AE9" s="25"/>
+      <c r="AF9" s="11"/>
+      <c r="AG9" s="24"/>
+      <c r="AH9" s="25"/>
+      <c r="AI9" s="25"/>
+      <c r="AJ9" s="11"/>
+    </row>
+    <row r="10" spans="1:36" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>1886</v>
       </c>
@@ -22313,7 +24196,7 @@
         <v>1726</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>1726</v>
+        <v>2041</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>1910</v>
@@ -22325,18 +24208,53 @@
         <v>1981</v>
       </c>
       <c r="I10" s="8" t="s">
+        <v>2112</v>
+      </c>
+      <c r="J10" s="24"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="11"/>
+      <c r="T10" s="3" t="s">
+        <v>1886</v>
+      </c>
+      <c r="U10" s="8" t="s">
+        <v>1909</v>
+      </c>
+      <c r="V10" s="8" t="s">
+        <v>1726</v>
+      </c>
+      <c r="W10" s="8" t="s">
+        <v>1726</v>
+      </c>
+      <c r="X10" s="8" t="s">
+        <v>2235</v>
+      </c>
+      <c r="Y10" s="8" t="s">
+        <v>1910</v>
+      </c>
+      <c r="Z10" s="8" t="s">
+        <v>1911</v>
+      </c>
+      <c r="AA10" s="8" t="s">
         <v>1981</v>
       </c>
-      <c r="J10" s="15"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="11"/>
-    </row>
-    <row r="11" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AB10" s="8" t="s">
+        <v>2237</v>
+      </c>
+      <c r="AC10" s="24"/>
+      <c r="AD10" s="25"/>
+      <c r="AE10" s="25"/>
+      <c r="AF10" s="11"/>
+      <c r="AG10" s="24"/>
+      <c r="AH10" s="25"/>
+      <c r="AI10" s="25"/>
+      <c r="AJ10" s="11"/>
+    </row>
+    <row r="11" spans="1:36" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="8" t="s">
         <v>1912</v>
@@ -22348,22 +24266,47 @@
         <v>1746</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>1978</v>
-      </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
+        <v>1974</v>
+      </c>
+      <c r="F11" s="24"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
       <c r="I11" s="11"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
       <c r="M11" s="11"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
       <c r="Q11" s="11"/>
-    </row>
-    <row r="12" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T11" s="4"/>
+      <c r="U11" s="8" t="s">
+        <v>1912</v>
+      </c>
+      <c r="V11" s="8" t="s">
+        <v>1744</v>
+      </c>
+      <c r="W11" s="8" t="s">
+        <v>1746</v>
+      </c>
+      <c r="X11" s="8" t="s">
+        <v>1974</v>
+      </c>
+      <c r="Y11" s="24"/>
+      <c r="Z11" s="25"/>
+      <c r="AA11" s="25"/>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="24"/>
+      <c r="AD11" s="25"/>
+      <c r="AE11" s="25"/>
+      <c r="AF11" s="11"/>
+      <c r="AG11" s="24"/>
+      <c r="AH11" s="25"/>
+      <c r="AI11" s="25"/>
+      <c r="AJ11" s="11"/>
+    </row>
+    <row r="12" spans="1:36" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>1913</v>
       </c>
@@ -22377,7 +24320,7 @@
         <v>1731</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>1997</v>
+        <v>1994</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>1915</v>
@@ -22389,7 +24332,7 @@
         <v>1949</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>2008</v>
+        <v>2139</v>
       </c>
       <c r="J12" s="8" t="s">
         <v>1916</v>
@@ -22401,7 +24344,7 @@
         <v>1961</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>1998</v>
+        <v>2115</v>
       </c>
       <c r="N12" s="8" t="s">
         <v>1917</v>
@@ -22410,18 +24353,69 @@
         <v>1918</v>
       </c>
       <c r="P12" s="8" t="s">
-        <v>2009</v>
+        <v>2140</v>
       </c>
       <c r="Q12" s="8" t="s">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2141</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>1913</v>
+      </c>
+      <c r="U12" s="8" t="s">
+        <v>1914</v>
+      </c>
+      <c r="V12" s="8" t="s">
+        <v>1729</v>
+      </c>
+      <c r="W12" s="8" t="s">
+        <v>1731</v>
+      </c>
+      <c r="X12" s="8" t="s">
+        <v>2137</v>
+      </c>
+      <c r="Y12" s="8" t="s">
+        <v>1915</v>
+      </c>
+      <c r="Z12" s="8" t="s">
+        <v>1779</v>
+      </c>
+      <c r="AA12" s="8" t="s">
+        <v>1949</v>
+      </c>
+      <c r="AB12" s="8" t="s">
+        <v>2151</v>
+      </c>
+      <c r="AC12" s="8" t="s">
+        <v>1916</v>
+      </c>
+      <c r="AD12" s="8" t="s">
+        <v>1810</v>
+      </c>
+      <c r="AE12" s="8" t="s">
+        <v>1961</v>
+      </c>
+      <c r="AF12" s="8" t="s">
+        <v>2156</v>
+      </c>
+      <c r="AG12" s="8" t="s">
+        <v>1917</v>
+      </c>
+      <c r="AH12" s="8" t="s">
+        <v>1918</v>
+      </c>
+      <c r="AI12" s="8" t="s">
+        <v>2140</v>
+      </c>
+      <c r="AJ12" s="8" t="s">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>1885</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>2032</v>
+        <v>2017</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>1732</v>
@@ -22430,7 +24424,7 @@
         <v>1734</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>2010</v>
+        <v>2142</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>1920</v>
@@ -22448,19 +24442,19 @@
         <v>1921</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>2033</v>
+        <v>2018</v>
       </c>
       <c r="L13" s="8" t="s">
         <v>1965</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>2011</v>
+        <v>2143</v>
       </c>
       <c r="N13" s="8" t="s">
         <v>1923</v>
       </c>
       <c r="O13" s="8" t="s">
-        <v>2034</v>
+        <v>2019</v>
       </c>
       <c r="P13" s="8" t="s">
         <v>1992</v>
@@ -22468,864 +24462,3644 @@
       <c r="Q13" s="8" t="s">
         <v>1992</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T13" s="3" t="s">
+        <v>1885</v>
+      </c>
+      <c r="U13" s="8" t="s">
+        <v>2017</v>
+      </c>
+      <c r="V13" s="8" t="s">
+        <v>1732</v>
+      </c>
+      <c r="W13" s="8" t="s">
+        <v>1734</v>
+      </c>
+      <c r="X13" s="8" t="s">
+        <v>2138</v>
+      </c>
+      <c r="Y13" s="8" t="s">
+        <v>1920</v>
+      </c>
+      <c r="Z13" s="8" t="s">
+        <v>1783</v>
+      </c>
+      <c r="AA13" s="8" t="s">
+        <v>1991</v>
+      </c>
+      <c r="AB13" s="8" t="s">
+        <v>1991</v>
+      </c>
+      <c r="AC13" s="8" t="s">
+        <v>1921</v>
+      </c>
+      <c r="AD13" s="8" t="s">
+        <v>2018</v>
+      </c>
+      <c r="AE13" s="8" t="s">
+        <v>1965</v>
+      </c>
+      <c r="AF13" s="8" t="s">
+        <v>2240</v>
+      </c>
+      <c r="AG13" s="8" t="s">
+        <v>1923</v>
+      </c>
+      <c r="AH13" s="8" t="s">
+        <v>2019</v>
+      </c>
+      <c r="AI13" s="8" t="s">
+        <v>1992</v>
+      </c>
+      <c r="AJ13" s="8" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>1886</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>2012</v>
+        <v>2211</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>1735</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>2013</v>
+        <v>2002</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>2013</v>
+        <v>2002</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>2014</v>
+        <v>2003</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>1787</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>2015</v>
+        <v>2004</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>2015</v>
+        <v>2117</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>2016</v>
+        <v>2005</v>
       </c>
       <c r="K14" s="8" t="s">
         <v>1818</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>2017</v>
+        <v>2006</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>2017</v>
-      </c>
-      <c r="N14" s="15"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
+        <v>2116</v>
+      </c>
+      <c r="N14" s="24"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
       <c r="Q14" s="11"/>
-    </row>
-    <row r="15" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T14" s="3" t="s">
+        <v>1886</v>
+      </c>
+      <c r="U14" s="8" t="s">
+        <v>2001</v>
+      </c>
+      <c r="V14" s="8" t="s">
+        <v>1735</v>
+      </c>
+      <c r="W14" s="8" t="s">
+        <v>2002</v>
+      </c>
+      <c r="X14" s="8" t="s">
+        <v>2147</v>
+      </c>
+      <c r="Y14" s="8" t="s">
+        <v>2003</v>
+      </c>
+      <c r="Z14" s="8" t="s">
+        <v>1787</v>
+      </c>
+      <c r="AA14" s="8" t="s">
+        <v>2004</v>
+      </c>
+      <c r="AB14" s="8" t="s">
+        <v>2152</v>
+      </c>
+      <c r="AC14" s="8" t="s">
+        <v>2005</v>
+      </c>
+      <c r="AD14" s="8" t="s">
+        <v>1818</v>
+      </c>
+      <c r="AE14" s="8" t="s">
+        <v>2006</v>
+      </c>
+      <c r="AF14" s="8" t="s">
+        <v>2157</v>
+      </c>
+      <c r="AG14" s="24"/>
+      <c r="AH14" s="25"/>
+      <c r="AI14" s="25"/>
+      <c r="AJ14" s="11"/>
+    </row>
+    <row r="15" spans="1:36" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="8" t="s">
-        <v>2018</v>
+        <v>2217</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>1741</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>2019</v>
+        <v>2008</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>2020</v>
+        <v>2008</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>2021</v>
+        <v>2009</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>1791</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>2022</v>
+        <v>2010</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>2022</v>
+        <v>2010</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>2023</v>
+        <v>2011</v>
       </c>
       <c r="K15" s="8" t="s">
         <v>1925</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>2024</v>
+        <v>2012</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>2025</v>
-      </c>
-      <c r="N15" s="15"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
+        <v>2144</v>
+      </c>
+      <c r="N15" s="24"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
       <c r="Q15" s="11"/>
-    </row>
-    <row r="16" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T15" s="3"/>
+      <c r="U15" s="8" t="s">
+        <v>2007</v>
+      </c>
+      <c r="V15" s="8" t="s">
+        <v>1741</v>
+      </c>
+      <c r="W15" s="8" t="s">
+        <v>2008</v>
+      </c>
+      <c r="X15" s="8" t="s">
+        <v>2230</v>
+      </c>
+      <c r="Y15" s="8" t="s">
+        <v>2009</v>
+      </c>
+      <c r="Z15" s="8" t="s">
+        <v>1791</v>
+      </c>
+      <c r="AA15" s="8" t="s">
+        <v>2010</v>
+      </c>
+      <c r="AB15" s="8" t="s">
+        <v>2010</v>
+      </c>
+      <c r="AC15" s="8" t="s">
+        <v>2011</v>
+      </c>
+      <c r="AD15" s="8" t="s">
+        <v>1925</v>
+      </c>
+      <c r="AE15" s="8" t="s">
+        <v>2012</v>
+      </c>
+      <c r="AF15" s="8" t="s">
+        <v>2158</v>
+      </c>
+      <c r="AG15" s="24"/>
+      <c r="AH15" s="25"/>
+      <c r="AI15" s="25"/>
+      <c r="AJ15" s="11"/>
+    </row>
+    <row r="16" spans="1:36" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="8" t="s">
-        <v>2026</v>
+        <v>2166</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>1738</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>2027</v>
+        <v>2014</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>2028</v>
+        <v>2014</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>2029</v>
+        <v>2015</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>1842</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>2030</v>
+        <v>2016</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>2031</v>
-      </c>
-      <c r="J16" s="15"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
+        <v>2118</v>
+      </c>
+      <c r="J16" s="24"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
       <c r="M16" s="12"/>
       <c r="N16" s="11"/>
       <c r="O16" s="11"/>
       <c r="P16" s="11"/>
       <c r="Q16" s="11"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+      <c r="T16" s="4"/>
+      <c r="U16" s="8" t="s">
+        <v>2013</v>
+      </c>
+      <c r="V16" s="8" t="s">
+        <v>1738</v>
+      </c>
+      <c r="W16" s="8" t="s">
+        <v>2014</v>
+      </c>
+      <c r="X16" s="8" t="s">
+        <v>2231</v>
+      </c>
+      <c r="Y16" s="8" t="s">
+        <v>2015</v>
+      </c>
+      <c r="Z16" s="8" t="s">
+        <v>1842</v>
+      </c>
+      <c r="AA16" s="8" t="s">
+        <v>2016</v>
+      </c>
+      <c r="AB16" s="8" t="s">
+        <v>2153</v>
+      </c>
+      <c r="AC16" s="24"/>
+      <c r="AD16" s="25"/>
+      <c r="AE16" s="25"/>
+      <c r="AF16" s="12"/>
+      <c r="AG16" s="11"/>
+      <c r="AH16" s="11"/>
+      <c r="AI16" s="11"/>
+      <c r="AJ16" s="11"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B19" s="22" t="s">
+        <v>2134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B20" s="13" t="s">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B21" s="14" t="s">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:18" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="26" t="s">
+        <v>2092</v>
+      </c>
+      <c r="D26" s="28"/>
+      <c r="E26" s="26" t="s">
+        <v>2093</v>
+      </c>
+      <c r="F26" s="28"/>
+      <c r="G26" s="26" t="s">
+        <v>2094</v>
+      </c>
+      <c r="H26" s="28"/>
+      <c r="I26" s="26" t="s">
+        <v>2095</v>
+      </c>
+      <c r="J26" s="28"/>
+      <c r="K26" s="26" t="s">
+        <v>2096</v>
+      </c>
+      <c r="L26" s="28"/>
+      <c r="M26" s="16" t="s">
+        <v>2098</v>
+      </c>
+      <c r="N26" s="21" t="s">
+        <v>2100</v>
+      </c>
+      <c r="O26" s="26" t="s">
+        <v>2097</v>
+      </c>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="21" t="s">
+        <v>2102</v>
+      </c>
+      <c r="R26" s="21" t="s">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C27" s="6" t="s">
+        <v>1996</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>1997</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>1996</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>1997</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>1996</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>1997</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>1996</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>1997</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>1996</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>1997</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>1996</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>1996</v>
+      </c>
+      <c r="O27" s="6" t="s">
+        <v>1996</v>
+      </c>
+      <c r="P27" s="6" t="s">
+        <v>1997</v>
+      </c>
+      <c r="Q27" s="6" t="s">
+        <v>1996</v>
+      </c>
+      <c r="R27" s="6" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="7" t="s">
+        <v>1998</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>1998</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>1998</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>1998</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>1998</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="M28" s="7" t="s">
+        <v>1998</v>
+      </c>
+      <c r="N28" s="7" t="s">
+        <v>1998</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>1998</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>1998</v>
+      </c>
+      <c r="R28" s="7" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="31" t="s">
+        <v>2043</v>
+      </c>
+      <c r="B29" s="31" t="s">
+        <v>2048</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>2091</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>2053</v>
+      </c>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19" t="s">
+        <v>2058</v>
+      </c>
+      <c r="H29" s="19" t="s">
+        <v>2064</v>
+      </c>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19" t="s">
+        <v>2085</v>
+      </c>
+      <c r="P29" s="19" t="s">
+        <v>2088</v>
+      </c>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="20" t="s">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="32"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="19" t="s">
+        <v>2050</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>2054</v>
+      </c>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19" t="s">
+        <v>2059</v>
+      </c>
+      <c r="H30" s="19" t="s">
+        <v>2065</v>
+      </c>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19" t="s">
+        <v>2086</v>
+      </c>
+      <c r="P30" s="19" t="s">
+        <v>2089</v>
+      </c>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="19"/>
+    </row>
+    <row r="31" spans="1:18" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="31" t="s">
+        <v>2044</v>
+      </c>
+      <c r="B31" s="31" t="s">
+        <v>2048</v>
+      </c>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19" t="s">
+        <v>2060</v>
+      </c>
+      <c r="H31" s="19" t="s">
+        <v>2066</v>
+      </c>
+      <c r="I31" s="19" t="s">
+        <v>2071</v>
+      </c>
+      <c r="J31" s="19" t="s">
+        <v>2075</v>
+      </c>
+      <c r="K31" s="19" t="s">
+        <v>2079</v>
+      </c>
+      <c r="L31" s="19" t="s">
+        <v>2082</v>
+      </c>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="19"/>
+    </row>
+    <row r="32" spans="1:18" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="32"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19" t="s">
+        <v>2061</v>
+      </c>
+      <c r="H32" s="19" t="s">
+        <v>2067</v>
+      </c>
+      <c r="I32" s="19" t="s">
+        <v>2072</v>
+      </c>
+      <c r="J32" s="19" t="s">
+        <v>2076</v>
+      </c>
+      <c r="K32" s="19" t="s">
+        <v>2080</v>
+      </c>
+      <c r="L32" s="19" t="s">
+        <v>2083</v>
+      </c>
+      <c r="M32" s="19"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="19"/>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="19"/>
+    </row>
+    <row r="33" spans="1:18" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="31" t="s">
+        <v>2045</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>2048</v>
+      </c>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19" t="s">
+        <v>2056</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>2057</v>
+      </c>
+      <c r="G33" s="19" t="s">
+        <v>2051</v>
+      </c>
+      <c r="H33" s="19" t="s">
+        <v>2068</v>
+      </c>
+      <c r="I33" s="19" t="s">
+        <v>2073</v>
+      </c>
+      <c r="J33" s="19" t="s">
+        <v>2077</v>
+      </c>
+      <c r="K33" s="19" t="s">
+        <v>2081</v>
+      </c>
+      <c r="L33" s="19" t="s">
+        <v>2084</v>
+      </c>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19" t="s">
+        <v>2087</v>
+      </c>
+      <c r="P33" s="19" t="s">
+        <v>2090</v>
+      </c>
+      <c r="Q33" s="19"/>
+      <c r="R33" s="19"/>
+    </row>
+    <row r="34" spans="1:18" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="32"/>
+      <c r="B34" s="17" t="s">
+        <v>2049</v>
+      </c>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19" t="s">
+        <v>2074</v>
+      </c>
+      <c r="J34" s="19" t="s">
+        <v>2078</v>
+      </c>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="19"/>
+      <c r="R34" s="19"/>
+    </row>
+    <row r="35" spans="1:18" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="18" t="s">
+        <v>2046</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>2049</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>2052</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>2055</v>
+      </c>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19" t="s">
+        <v>2062</v>
+      </c>
+      <c r="H35" s="19" t="s">
+        <v>2069</v>
+      </c>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="19"/>
+      <c r="O35" s="19"/>
+      <c r="P35" s="19"/>
+      <c r="Q35" s="19"/>
+      <c r="R35" s="19"/>
+    </row>
+    <row r="36" spans="1:18" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="17" t="s">
+        <v>2047</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>2049</v>
+      </c>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19" t="s">
+        <v>2063</v>
+      </c>
+      <c r="H36" s="19" t="s">
+        <v>2070</v>
+      </c>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="20" t="s">
+        <v>2099</v>
+      </c>
+      <c r="N36" s="20" t="s">
+        <v>2101</v>
+      </c>
+      <c r="O36" s="19"/>
+      <c r="P36" s="19"/>
+      <c r="Q36" s="20" t="s">
+        <v>2103</v>
+      </c>
+      <c r="R36" s="20"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B39" s="14" t="s">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B40" s="14" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B41" s="14" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B42" s="14" t="s">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="29" t="s">
+        <v>1876</v>
+      </c>
+      <c r="C52" s="30"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="29" t="s">
+        <v>1877</v>
+      </c>
+      <c r="G52" s="30"/>
+      <c r="H52" s="30"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="26" t="s">
+        <v>1878</v>
+      </c>
+      <c r="K52" s="27"/>
+      <c r="L52" s="27"/>
+      <c r="M52" s="28"/>
+      <c r="N52" s="26" t="s">
+        <v>1879</v>
+      </c>
+      <c r="O52" s="27"/>
+      <c r="P52" s="27"/>
+      <c r="Q52" s="28"/>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B53" s="6" t="s">
+        <v>1996</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>1997</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>1975</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>1983</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>1996</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>1997</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>1975</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>1983</v>
+      </c>
+      <c r="J53" s="6" t="s">
+        <v>1996</v>
+      </c>
+      <c r="K53" s="6" t="s">
+        <v>1997</v>
+      </c>
+      <c r="L53" s="6" t="s">
+        <v>1975</v>
+      </c>
+      <c r="M53" s="6" t="s">
+        <v>1983</v>
+      </c>
+      <c r="N53" s="6" t="s">
+        <v>1996</v>
+      </c>
+      <c r="O53" s="6" t="s">
+        <v>1997</v>
+      </c>
+      <c r="P53" s="6" t="s">
+        <v>1975</v>
+      </c>
+      <c r="Q53" s="6" t="s">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="7" t="s">
+        <v>1998</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>1998</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J54" s="7" t="s">
+        <v>1998</v>
+      </c>
+      <c r="K54" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L54" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="M54" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="N54" s="7" t="s">
+        <v>1998</v>
+      </c>
+      <c r="O54" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="P54" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q54" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>1884</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>1887</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>1713</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>1926</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>1926</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>1888</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>1757</v>
+      </c>
+      <c r="H55" s="8" t="s">
+        <v>1757</v>
+      </c>
+      <c r="I55" s="8" t="s">
+        <v>2034</v>
+      </c>
+      <c r="J55" s="8" t="s">
+        <v>1889</v>
+      </c>
+      <c r="K55" s="8" t="s">
+        <v>1794</v>
+      </c>
+      <c r="L55" s="8" t="s">
+        <v>1794</v>
+      </c>
+      <c r="M55" s="8" t="s">
+        <v>2035</v>
+      </c>
+      <c r="N55" s="10"/>
+      <c r="O55" s="11"/>
+      <c r="P55" s="11"/>
+      <c r="Q55" s="11"/>
+    </row>
+    <row r="56" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
+        <v>1885</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>1890</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>1715</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>1932</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>1932</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>1891</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>1765</v>
+      </c>
+      <c r="H56" s="8" t="s">
+        <v>1765</v>
+      </c>
+      <c r="I56" s="8" t="s">
+        <v>2033</v>
+      </c>
+      <c r="J56" s="8" t="s">
+        <v>1892</v>
+      </c>
+      <c r="K56" s="8" t="s">
+        <v>1797</v>
+      </c>
+      <c r="L56" s="8" t="s">
+        <v>1797</v>
+      </c>
+      <c r="M56" s="8" t="s">
+        <v>2036</v>
+      </c>
+      <c r="N56" s="8" t="s">
+        <v>1893</v>
+      </c>
+      <c r="O56" s="8" t="s">
+        <v>1894</v>
+      </c>
+      <c r="P56" s="8" t="s">
+        <v>1970</v>
+      </c>
+      <c r="Q56" s="8" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
+        <v>1886</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>2020</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>1895</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>1944</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>1944</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>1896</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>1747</v>
+      </c>
+      <c r="H57" s="8" t="s">
+        <v>1944</v>
+      </c>
+      <c r="I57" s="8" t="s">
+        <v>1944</v>
+      </c>
+      <c r="J57" s="8" t="s">
+        <v>1897</v>
+      </c>
+      <c r="K57" s="8" t="s">
+        <v>1748</v>
+      </c>
+      <c r="L57" s="8" t="s">
+        <v>1748</v>
+      </c>
+      <c r="M57" s="8" t="s">
+        <v>1748</v>
+      </c>
+      <c r="N57" s="8" t="s">
+        <v>1898</v>
+      </c>
+      <c r="O57" s="8" t="s">
+        <v>1899</v>
+      </c>
+      <c r="P57" s="8" t="s">
+        <v>1971</v>
+      </c>
+      <c r="Q57" s="8" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>1995</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>1717</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>1719</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>1976</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>1903</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>1769</v>
+      </c>
+      <c r="H58" s="8" t="s">
+        <v>1947</v>
+      </c>
+      <c r="I58" s="8" t="s">
+        <v>1979</v>
+      </c>
+      <c r="J58" s="8" t="s">
+        <v>1904</v>
+      </c>
+      <c r="K58" s="8" t="s">
+        <v>1801</v>
+      </c>
+      <c r="L58" s="8" t="s">
+        <v>1957</v>
+      </c>
+      <c r="M58" s="8" t="s">
+        <v>1982</v>
+      </c>
+      <c r="N58" s="24"/>
+      <c r="O58" s="25"/>
+      <c r="P58" s="25"/>
+      <c r="Q58" s="11"/>
+    </row>
+    <row r="59" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>1905</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>1720</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>1722</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>1977</v>
+      </c>
+      <c r="F59" s="24"/>
+      <c r="G59" s="25"/>
+      <c r="H59" s="25"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="8" t="s">
+        <v>1906</v>
+      </c>
+      <c r="K59" s="8" t="s">
+        <v>1806</v>
+      </c>
+      <c r="L59" s="8" t="s">
+        <v>1959</v>
+      </c>
+      <c r="M59" s="8" t="s">
+        <v>1984</v>
+      </c>
+      <c r="N59" s="24"/>
+      <c r="O59" s="25"/>
+      <c r="P59" s="25"/>
+      <c r="Q59" s="11"/>
+    </row>
+    <row r="60" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
+        <v>1885</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>1907</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>1723</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>1725</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>1725</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>1908</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H60" s="8" t="s">
+        <v>1943</v>
+      </c>
+      <c r="I60" s="8" t="s">
+        <v>1980</v>
+      </c>
+      <c r="J60" s="24"/>
+      <c r="K60" s="25"/>
+      <c r="L60" s="25"/>
+      <c r="M60" s="11"/>
+      <c r="N60" s="24"/>
+      <c r="O60" s="25"/>
+      <c r="P60" s="25"/>
+      <c r="Q60" s="11"/>
+    </row>
+    <row r="61" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
+        <v>1886</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>1909</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>1726</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>1726</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>1726</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>1910</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>1911</v>
+      </c>
+      <c r="H61" s="8" t="s">
+        <v>1981</v>
+      </c>
+      <c r="I61" s="8" t="s">
+        <v>1981</v>
+      </c>
+      <c r="J61" s="24"/>
+      <c r="K61" s="25"/>
+      <c r="L61" s="25"/>
+      <c r="M61" s="11"/>
+      <c r="N61" s="24"/>
+      <c r="O61" s="25"/>
+      <c r="P61" s="25"/>
+      <c r="Q61" s="11"/>
+    </row>
+    <row r="62" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="4"/>
+      <c r="B62" s="8" t="s">
+        <v>1912</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>1744</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>1746</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>1978</v>
+      </c>
+      <c r="F62" s="24"/>
+      <c r="G62" s="25"/>
+      <c r="H62" s="25"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="24"/>
+      <c r="K62" s="25"/>
+      <c r="L62" s="25"/>
+      <c r="M62" s="11"/>
+      <c r="N62" s="24"/>
+      <c r="O62" s="25"/>
+      <c r="P62" s="25"/>
+      <c r="Q62" s="11"/>
+    </row>
+    <row r="63" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>1913</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>1914</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>1729</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>1731</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>1986</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>1915</v>
+      </c>
+      <c r="G63" s="8" t="s">
+        <v>1779</v>
+      </c>
+      <c r="H63" s="8" t="s">
+        <v>1949</v>
+      </c>
+      <c r="I63" s="8" t="s">
+        <v>1985</v>
+      </c>
+      <c r="J63" s="8" t="s">
+        <v>1916</v>
+      </c>
+      <c r="K63" s="8" t="s">
+        <v>1810</v>
+      </c>
+      <c r="L63" s="8" t="s">
+        <v>1961</v>
+      </c>
+      <c r="M63" s="8" t="s">
+        <v>1989</v>
+      </c>
+      <c r="N63" s="8" t="s">
+        <v>1917</v>
+      </c>
+      <c r="O63" s="8" t="s">
+        <v>1918</v>
+      </c>
+      <c r="P63" s="8" t="s">
+        <v>2140</v>
+      </c>
+      <c r="Q63" s="8" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
+        <v>1885</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>1919</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>1732</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>1734</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>1987</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>1920</v>
+      </c>
+      <c r="G64" s="8" t="s">
+        <v>1783</v>
+      </c>
+      <c r="H64" s="8" t="s">
+        <v>1951</v>
+      </c>
+      <c r="I64" s="15" t="s">
+        <v>2029</v>
+      </c>
+      <c r="J64" s="8" t="s">
+        <v>1921</v>
+      </c>
+      <c r="K64" s="8" t="s">
+        <v>1922</v>
+      </c>
+      <c r="L64" s="8" t="s">
+        <v>1965</v>
+      </c>
+      <c r="M64" s="8" t="s">
+        <v>1988</v>
+      </c>
+      <c r="N64" s="8" t="s">
+        <v>1923</v>
+      </c>
+      <c r="O64" s="8" t="s">
+        <v>1924</v>
+      </c>
+      <c r="P64" s="8" t="s">
+        <v>1992</v>
+      </c>
+      <c r="Q64" s="15" t="s">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
+        <v>1886</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>2001</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>1735</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>2002</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>2021</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>2003</v>
+      </c>
+      <c r="G65" s="8" t="s">
+        <v>1787</v>
+      </c>
+      <c r="H65" s="8" t="s">
         <v>2004</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="13" t="s">
+      <c r="I65" s="8" t="s">
+        <v>2022</v>
+      </c>
+      <c r="J65" s="8" t="s">
         <v>2005</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B20" s="14" t="s">
+      <c r="K65" s="8" t="s">
+        <v>1818</v>
+      </c>
+      <c r="L65" s="8" t="s">
         <v>2006</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="22" t="s">
+      <c r="M65" s="8" t="s">
+        <v>2023</v>
+      </c>
+      <c r="N65" s="24"/>
+      <c r="O65" s="25"/>
+      <c r="P65" s="25"/>
+      <c r="Q65" s="11"/>
+    </row>
+    <row r="66" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="3"/>
+      <c r="B66" s="8" t="s">
+        <v>2007</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>1741</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>2008</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>2024</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>2009</v>
+      </c>
+      <c r="G66" s="8" t="s">
+        <v>1791</v>
+      </c>
+      <c r="H66" s="8" t="s">
+        <v>2010</v>
+      </c>
+      <c r="I66" s="15" t="s">
+        <v>2030</v>
+      </c>
+      <c r="J66" s="8" t="s">
+        <v>2011</v>
+      </c>
+      <c r="K66" s="8" t="s">
+        <v>1925</v>
+      </c>
+      <c r="L66" s="8" t="s">
+        <v>2012</v>
+      </c>
+      <c r="M66" s="8" t="s">
+        <v>2025</v>
+      </c>
+      <c r="N66" s="24"/>
+      <c r="O66" s="25"/>
+      <c r="P66" s="25"/>
+      <c r="Q66" s="11"/>
+    </row>
+    <row r="67" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="4"/>
+      <c r="B67" s="8" t="s">
+        <v>2013</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>1738</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>2014</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>2026</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>2015</v>
+      </c>
+      <c r="G67" s="8" t="s">
+        <v>1842</v>
+      </c>
+      <c r="H67" s="8" t="s">
+        <v>2016</v>
+      </c>
+      <c r="I67" s="8" t="s">
+        <v>2027</v>
+      </c>
+      <c r="J67" s="24"/>
+      <c r="K67" s="25"/>
+      <c r="L67" s="25"/>
+      <c r="M67" s="12"/>
+      <c r="N67" s="11"/>
+      <c r="O67" s="11"/>
+      <c r="P67" s="11"/>
+      <c r="Q67" s="11"/>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B69" s="22" t="s">
+        <v>2162</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B70" s="13" t="s">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B71" s="13" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B72" s="14" t="s">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B73" s="14" t="s">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="77" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="29" t="s">
         <v>1876</v>
       </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="22" t="s">
+      <c r="C77" s="30"/>
+      <c r="D77" s="30"/>
+      <c r="E77" s="30"/>
+      <c r="F77" s="29" t="s">
         <v>1877</v>
       </c>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="19" t="s">
+      <c r="G77" s="30"/>
+      <c r="H77" s="30"/>
+      <c r="I77" s="5"/>
+      <c r="J77" s="26" t="s">
         <v>1878</v>
       </c>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="19" t="s">
+      <c r="K77" s="27"/>
+      <c r="L77" s="27"/>
+      <c r="M77" s="28"/>
+      <c r="N77" s="26" t="s">
         <v>1879</v>
       </c>
-      <c r="O26" s="20"/>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="21"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B27" s="6" t="s">
+      <c r="O77" s="27"/>
+      <c r="P77" s="27"/>
+      <c r="Q77" s="28"/>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B78" s="6" t="s">
+        <v>1996</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>1997</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>1975</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>1983</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>1996</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>1997</v>
+      </c>
+      <c r="H78" s="6" t="s">
+        <v>1975</v>
+      </c>
+      <c r="I78" s="6" t="s">
+        <v>1983</v>
+      </c>
+      <c r="J78" s="6" t="s">
+        <v>1996</v>
+      </c>
+      <c r="K78" s="6" t="s">
+        <v>1997</v>
+      </c>
+      <c r="L78" s="6" t="s">
+        <v>1975</v>
+      </c>
+      <c r="M78" s="6" t="s">
+        <v>1983</v>
+      </c>
+      <c r="N78" s="6" t="s">
+        <v>1996</v>
+      </c>
+      <c r="O78" s="6" t="s">
+        <v>1997</v>
+      </c>
+      <c r="P78" s="6" t="s">
+        <v>1975</v>
+      </c>
+      <c r="Q78" s="6" t="s">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="7" t="s">
+        <v>1998</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>1998</v>
+      </c>
+      <c r="G79" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H79" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I79" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J79" s="7" t="s">
+        <v>1998</v>
+      </c>
+      <c r="K79" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L79" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="M79" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="N79" s="7" t="s">
+        <v>1998</v>
+      </c>
+      <c r="O79" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="P79" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q79" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>1884</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>1887</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>1713</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>1926</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>1926</v>
+      </c>
+      <c r="F80" s="8" t="s">
+        <v>1888</v>
+      </c>
+      <c r="G80" s="8" t="s">
+        <v>1757</v>
+      </c>
+      <c r="H80" s="8" t="s">
+        <v>1757</v>
+      </c>
+      <c r="I80" s="8" t="s">
+        <v>1993</v>
+      </c>
+      <c r="J80" s="8" t="s">
+        <v>1889</v>
+      </c>
+      <c r="K80" s="8" t="s">
+        <v>1794</v>
+      </c>
+      <c r="L80" s="8" t="s">
+        <v>1794</v>
+      </c>
+      <c r="M80" s="8" t="s">
+        <v>2132</v>
+      </c>
+      <c r="N80" s="10"/>
+      <c r="O80" s="11"/>
+      <c r="P80" s="11"/>
+      <c r="Q80" s="11"/>
+    </row>
+    <row r="81" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="3" t="s">
+        <v>1885</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>1890</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>1715</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>1932</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>1932</v>
+      </c>
+      <c r="F81" s="8" t="s">
+        <v>1891</v>
+      </c>
+      <c r="G81" s="8" t="s">
+        <v>1765</v>
+      </c>
+      <c r="H81" s="8" t="s">
+        <v>1765</v>
+      </c>
+      <c r="I81" s="8" t="s">
+        <v>2131</v>
+      </c>
+      <c r="J81" s="8" t="s">
+        <v>1892</v>
+      </c>
+      <c r="K81" s="8" t="s">
+        <v>1797</v>
+      </c>
+      <c r="L81" s="8" t="s">
+        <v>1797</v>
+      </c>
+      <c r="M81" s="8" t="s">
+        <v>2133</v>
+      </c>
+      <c r="N81" s="8" t="s">
+        <v>1893</v>
+      </c>
+      <c r="O81" s="8" t="s">
+        <v>1894</v>
+      </c>
+      <c r="P81" s="8" t="s">
+        <v>1970</v>
+      </c>
+      <c r="Q81" s="8" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="4" t="s">
+        <v>1886</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>2020</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>1895</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>1944</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>1944</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>1896</v>
+      </c>
+      <c r="G82" s="8" t="s">
+        <v>1747</v>
+      </c>
+      <c r="H82" s="8" t="s">
+        <v>1944</v>
+      </c>
+      <c r="I82" s="8" t="s">
+        <v>1944</v>
+      </c>
+      <c r="J82" s="8" t="s">
+        <v>1897</v>
+      </c>
+      <c r="K82" s="8" t="s">
+        <v>1748</v>
+      </c>
+      <c r="L82" s="8" t="s">
+        <v>1748</v>
+      </c>
+      <c r="M82" s="8" t="s">
+        <v>1748</v>
+      </c>
+      <c r="N82" s="8" t="s">
+        <v>1898</v>
+      </c>
+      <c r="O82" s="8" t="s">
+        <v>1899</v>
+      </c>
+      <c r="P82" s="8" t="s">
+        <v>1971</v>
+      </c>
+      <c r="Q82" s="8" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>1995</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>1717</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>1719</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>2038</v>
+      </c>
+      <c r="F83" s="8" t="s">
+        <v>1903</v>
+      </c>
+      <c r="G83" s="8" t="s">
+        <v>1769</v>
+      </c>
+      <c r="H83" s="8" t="s">
+        <v>1947</v>
+      </c>
+      <c r="I83" s="8" t="s">
+        <v>2124</v>
+      </c>
+      <c r="J83" s="8" t="s">
+        <v>1904</v>
+      </c>
+      <c r="K83" s="8" t="s">
+        <v>1801</v>
+      </c>
+      <c r="L83" s="8" t="s">
+        <v>1957</v>
+      </c>
+      <c r="M83" s="8" t="s">
+        <v>2130</v>
+      </c>
+      <c r="N83" s="24"/>
+      <c r="O83" s="25"/>
+      <c r="P83" s="25"/>
+      <c r="Q83" s="11"/>
+    </row>
+    <row r="84" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="3" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>1905</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>1720</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>1722</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>2039</v>
+      </c>
+      <c r="F84" s="24"/>
+      <c r="G84" s="25"/>
+      <c r="H84" s="25"/>
+      <c r="I84" s="11"/>
+      <c r="J84" s="8" t="s">
+        <v>1906</v>
+      </c>
+      <c r="K84" s="8" t="s">
+        <v>1806</v>
+      </c>
+      <c r="L84" s="8" t="s">
+        <v>1959</v>
+      </c>
+      <c r="M84" s="8" t="s">
+        <v>2129</v>
+      </c>
+      <c r="N84" s="24"/>
+      <c r="O84" s="25"/>
+      <c r="P84" s="25"/>
+      <c r="Q84" s="11"/>
+    </row>
+    <row r="85" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="3" t="s">
+        <v>1885</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>1907</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>1723</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>1725</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F85" s="8" t="s">
+        <v>1908</v>
+      </c>
+      <c r="G85" s="8" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H85" s="8" t="s">
+        <v>1943</v>
+      </c>
+      <c r="I85" s="8" t="s">
+        <v>2125</v>
+      </c>
+      <c r="J85" s="24"/>
+      <c r="K85" s="25"/>
+      <c r="L85" s="25"/>
+      <c r="M85" s="11"/>
+      <c r="N85" s="24"/>
+      <c r="O85" s="25"/>
+      <c r="P85" s="25"/>
+      <c r="Q85" s="11"/>
+    </row>
+    <row r="86" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="3" t="s">
+        <v>1886</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>1909</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>1726</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>1726</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>2041</v>
+      </c>
+      <c r="F86" s="8" t="s">
+        <v>1910</v>
+      </c>
+      <c r="G86" s="8" t="s">
+        <v>1911</v>
+      </c>
+      <c r="H86" s="8" t="s">
+        <v>1981</v>
+      </c>
+      <c r="I86" s="8" t="s">
+        <v>2126</v>
+      </c>
+      <c r="J86" s="24"/>
+      <c r="K86" s="25"/>
+      <c r="L86" s="25"/>
+      <c r="M86" s="11"/>
+      <c r="N86" s="24"/>
+      <c r="O86" s="25"/>
+      <c r="P86" s="25"/>
+      <c r="Q86" s="11"/>
+    </row>
+    <row r="87" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="4"/>
+      <c r="B87" s="8" t="s">
+        <v>1912</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>1744</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>1746</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>1974</v>
+      </c>
+      <c r="F87" s="24"/>
+      <c r="G87" s="25"/>
+      <c r="H87" s="25"/>
+      <c r="I87" s="11"/>
+      <c r="J87" s="24"/>
+      <c r="K87" s="25"/>
+      <c r="L87" s="25"/>
+      <c r="M87" s="11"/>
+      <c r="N87" s="24"/>
+      <c r="O87" s="25"/>
+      <c r="P87" s="25"/>
+      <c r="Q87" s="11"/>
+    </row>
+    <row r="88" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
+        <v>1913</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>1914</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>1729</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>1731</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>1994</v>
+      </c>
+      <c r="F88" s="8" t="s">
+        <v>1915</v>
+      </c>
+      <c r="G88" s="8" t="s">
+        <v>1779</v>
+      </c>
+      <c r="H88" s="8" t="s">
+        <v>1949</v>
+      </c>
+      <c r="I88" s="8" t="s">
+        <v>2145</v>
+      </c>
+      <c r="J88" s="8" t="s">
+        <v>1916</v>
+      </c>
+      <c r="K88" s="8" t="s">
+        <v>1810</v>
+      </c>
+      <c r="L88" s="8" t="s">
+        <v>1961</v>
+      </c>
+      <c r="M88" s="8" t="s">
+        <v>2128</v>
+      </c>
+      <c r="N88" s="8" t="s">
+        <v>1917</v>
+      </c>
+      <c r="O88" s="8" t="s">
+        <v>1918</v>
+      </c>
+      <c r="P88" s="8" t="s">
+        <v>2140</v>
+      </c>
+      <c r="Q88" s="8" t="s">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="3" t="s">
+        <v>1885</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>1919</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>1732</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>1734</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>2142</v>
+      </c>
+      <c r="F89" s="8" t="s">
+        <v>1920</v>
+      </c>
+      <c r="G89" s="8" t="s">
+        <v>1783</v>
+      </c>
+      <c r="H89" s="8" t="s">
+        <v>1951</v>
+      </c>
+      <c r="I89" s="23" t="s">
+        <v>1991</v>
+      </c>
+      <c r="J89" s="8" t="s">
+        <v>1921</v>
+      </c>
+      <c r="K89" s="8" t="s">
+        <v>1922</v>
+      </c>
+      <c r="L89" s="8" t="s">
+        <v>1965</v>
+      </c>
+      <c r="M89" s="8" t="s">
+        <v>2146</v>
+      </c>
+      <c r="N89" s="8" t="s">
+        <v>1923</v>
+      </c>
+      <c r="O89" s="8" t="s">
+        <v>1924</v>
+      </c>
+      <c r="P89" s="8" t="s">
+        <v>1992</v>
+      </c>
+      <c r="Q89" s="23" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="3" t="s">
+        <v>1886</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>2001</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>1735</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>2002</v>
+      </c>
+      <c r="E90" s="8" t="s">
+        <v>2002</v>
+      </c>
+      <c r="F90" s="8" t="s">
+        <v>2003</v>
+      </c>
+      <c r="G90" s="8" t="s">
+        <v>1787</v>
+      </c>
+      <c r="H90" s="8" t="s">
+        <v>2004</v>
+      </c>
+      <c r="I90" s="8" t="s">
+        <v>2004</v>
+      </c>
+      <c r="J90" s="8" t="s">
+        <v>2005</v>
+      </c>
+      <c r="K90" s="8" t="s">
+        <v>1818</v>
+      </c>
+      <c r="L90" s="8" t="s">
+        <v>2006</v>
+      </c>
+      <c r="M90" s="8" t="s">
+        <v>2006</v>
+      </c>
+      <c r="N90" s="24"/>
+      <c r="O90" s="25"/>
+      <c r="P90" s="25"/>
+      <c r="Q90" s="11"/>
+    </row>
+    <row r="91" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="3"/>
+      <c r="B91" s="8" t="s">
+        <v>2007</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>1741</v>
+      </c>
+      <c r="D91" s="8" t="s">
+        <v>2008</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>2008</v>
+      </c>
+      <c r="F91" s="8" t="s">
+        <v>2009</v>
+      </c>
+      <c r="G91" s="8" t="s">
+        <v>1791</v>
+      </c>
+      <c r="H91" s="8" t="s">
+        <v>2010</v>
+      </c>
+      <c r="I91" s="23" t="s">
+        <v>2127</v>
+      </c>
+      <c r="J91" s="8" t="s">
+        <v>2011</v>
+      </c>
+      <c r="K91" s="8" t="s">
+        <v>1925</v>
+      </c>
+      <c r="L91" s="8" t="s">
+        <v>2012</v>
+      </c>
+      <c r="M91" s="8" t="s">
+        <v>2012</v>
+      </c>
+      <c r="N91" s="24"/>
+      <c r="O91" s="25"/>
+      <c r="P91" s="25"/>
+      <c r="Q91" s="11"/>
+    </row>
+    <row r="92" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="4"/>
+      <c r="B92" s="8" t="s">
+        <v>2013</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>1738</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>2014</v>
+      </c>
+      <c r="E92" s="8" t="s">
+        <v>2014</v>
+      </c>
+      <c r="F92" s="8" t="s">
+        <v>2015</v>
+      </c>
+      <c r="G92" s="8" t="s">
+        <v>1842</v>
+      </c>
+      <c r="H92" s="8" t="s">
+        <v>2016</v>
+      </c>
+      <c r="I92" s="8" t="s">
+        <v>2016</v>
+      </c>
+      <c r="J92" s="24"/>
+      <c r="K92" s="25"/>
+      <c r="L92" s="25"/>
+      <c r="M92" s="12"/>
+      <c r="N92" s="11"/>
+      <c r="O92" s="11"/>
+      <c r="P92" s="11"/>
+      <c r="Q92" s="11"/>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B94" s="22" t="s">
+        <v>2163</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B95" s="13" t="s">
+        <v>2165</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B96" s="13" t="s">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B97" s="14" t="s">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B98" s="14"/>
+    </row>
+    <row r="101" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="102" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B102" s="29" t="s">
+        <v>1876</v>
+      </c>
+      <c r="C102" s="30"/>
+      <c r="D102" s="30"/>
+      <c r="E102" s="30"/>
+      <c r="F102" s="29" t="s">
+        <v>1877</v>
+      </c>
+      <c r="G102" s="30"/>
+      <c r="H102" s="30"/>
+      <c r="I102" s="5"/>
+      <c r="J102" s="26" t="s">
+        <v>1878</v>
+      </c>
+      <c r="K102" s="27"/>
+      <c r="L102" s="27"/>
+      <c r="M102" s="28"/>
+      <c r="N102" s="26" t="s">
+        <v>1879</v>
+      </c>
+      <c r="O102" s="27"/>
+      <c r="P102" s="27"/>
+      <c r="Q102" s="28"/>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B103" s="6" t="s">
+        <v>1996</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>1997</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>1975</v>
+      </c>
+      <c r="E103" s="6" t="s">
+        <v>1983</v>
+      </c>
+      <c r="F103" s="6" t="s">
+        <v>1996</v>
+      </c>
+      <c r="G103" s="6" t="s">
+        <v>1997</v>
+      </c>
+      <c r="H103" s="6" t="s">
+        <v>1975</v>
+      </c>
+      <c r="I103" s="6" t="s">
+        <v>1983</v>
+      </c>
+      <c r="J103" s="6" t="s">
+        <v>1996</v>
+      </c>
+      <c r="K103" s="6" t="s">
+        <v>1997</v>
+      </c>
+      <c r="L103" s="6" t="s">
+        <v>1975</v>
+      </c>
+      <c r="M103" s="6" t="s">
+        <v>1983</v>
+      </c>
+      <c r="N103" s="6" t="s">
+        <v>1996</v>
+      </c>
+      <c r="O103" s="6" t="s">
+        <v>1997</v>
+      </c>
+      <c r="P103" s="6" t="s">
+        <v>1975</v>
+      </c>
+      <c r="Q103" s="6" t="s">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B104" s="7" t="s">
+        <v>1998</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E104" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F104" s="7" t="s">
+        <v>1998</v>
+      </c>
+      <c r="G104" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H104" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I104" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J104" s="7" t="s">
+        <v>1998</v>
+      </c>
+      <c r="K104" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L104" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="M104" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="N104" s="7" t="s">
+        <v>1998</v>
+      </c>
+      <c r="O104" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="P104" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q104" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="2" t="s">
+        <v>1884</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>2167</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>1926</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>1926</v>
+      </c>
+      <c r="E105" s="8" t="s">
+        <v>1926</v>
+      </c>
+      <c r="F105" s="8" t="s">
+        <v>1999</v>
+      </c>
+      <c r="G105" s="8" t="s">
+        <v>1993</v>
+      </c>
+      <c r="H105" s="8" t="s">
+        <v>1993</v>
+      </c>
+      <c r="I105" s="8" t="s">
+        <v>2034</v>
+      </c>
+      <c r="J105" s="8" t="s">
+        <v>2168</v>
+      </c>
+      <c r="K105" s="8" t="s">
+        <v>2132</v>
+      </c>
+      <c r="L105" s="8" t="s">
+        <v>2132</v>
+      </c>
+      <c r="M105" s="8" t="s">
+        <v>2035</v>
+      </c>
+      <c r="N105" s="10"/>
+      <c r="O105" s="11"/>
+      <c r="P105" s="11"/>
+      <c r="Q105" s="11"/>
+    </row>
+    <row r="106" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="3" t="s">
+        <v>1885</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>2169</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>2170</v>
+      </c>
+      <c r="D106" s="8" t="s">
+        <v>1932</v>
+      </c>
+      <c r="E106" s="8" t="s">
+        <v>1932</v>
+      </c>
+      <c r="F106" s="8" t="s">
+        <v>2171</v>
+      </c>
+      <c r="G106" s="8" t="s">
+        <v>2131</v>
+      </c>
+      <c r="H106" s="8" t="s">
+        <v>2131</v>
+      </c>
+      <c r="I106" s="8" t="s">
+        <v>2033</v>
+      </c>
+      <c r="J106" s="8" t="s">
+        <v>2172</v>
+      </c>
+      <c r="K106" s="8" t="s">
+        <v>2133</v>
+      </c>
+      <c r="L106" s="8" t="s">
+        <v>2133</v>
+      </c>
+      <c r="M106" s="8" t="s">
+        <v>2036</v>
+      </c>
+      <c r="N106" s="8" t="s">
+        <v>2173</v>
+      </c>
+      <c r="O106" s="8" t="s">
+        <v>2174</v>
+      </c>
+      <c r="P106" s="8" t="s">
+        <v>1970</v>
+      </c>
+      <c r="Q106" s="8" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="4" t="s">
+        <v>1886</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>2175</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>2176</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>1944</v>
+      </c>
+      <c r="E107" s="8" t="s">
+        <v>1944</v>
+      </c>
+      <c r="F107" s="8" t="s">
+        <v>2177</v>
+      </c>
+      <c r="G107" s="8" t="s">
+        <v>1944</v>
+      </c>
+      <c r="H107" s="8" t="s">
+        <v>1944</v>
+      </c>
+      <c r="I107" s="8" t="s">
+        <v>1944</v>
+      </c>
+      <c r="J107" s="8" t="s">
+        <v>2178</v>
+      </c>
+      <c r="K107" s="8" t="s">
+        <v>2161</v>
+      </c>
+      <c r="L107" s="8" t="s">
+        <v>2161</v>
+      </c>
+      <c r="M107" s="8" t="s">
+        <v>2161</v>
+      </c>
+      <c r="N107" s="8" t="s">
+        <v>2179</v>
+      </c>
+      <c r="O107" s="8" t="s">
+        <v>2180</v>
+      </c>
+      <c r="P107" s="8" t="s">
+        <v>1971</v>
+      </c>
+      <c r="Q107" s="8" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="2" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>1995</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>1976</v>
+      </c>
+      <c r="D108" s="8" t="s">
+        <v>2038</v>
+      </c>
+      <c r="E108" s="8" t="s">
+        <v>2038</v>
+      </c>
+      <c r="F108" s="8" t="s">
+        <v>2181</v>
+      </c>
+      <c r="G108" s="8" t="s">
+        <v>2182</v>
+      </c>
+      <c r="H108" s="8" t="s">
+        <v>2124</v>
+      </c>
+      <c r="I108" s="8" t="s">
+        <v>2124</v>
+      </c>
+      <c r="J108" s="8" t="s">
+        <v>2183</v>
+      </c>
+      <c r="K108" s="8" t="s">
+        <v>2184</v>
+      </c>
+      <c r="L108" s="8" t="s">
+        <v>2130</v>
+      </c>
+      <c r="M108" s="8" t="s">
+        <v>2130</v>
+      </c>
+      <c r="N108" s="24"/>
+      <c r="O108" s="25"/>
+      <c r="P108" s="25"/>
+      <c r="Q108" s="11"/>
+    </row>
+    <row r="109" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="3" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>2185</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>1977</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E109" s="8" t="s">
+        <v>2039</v>
+      </c>
+      <c r="F109" s="24"/>
+      <c r="G109" s="25"/>
+      <c r="H109" s="25"/>
+      <c r="I109" s="11"/>
+      <c r="J109" s="8" t="s">
+        <v>2186</v>
+      </c>
+      <c r="K109" s="8" t="s">
+        <v>2187</v>
+      </c>
+      <c r="L109" s="8" t="s">
+        <v>2129</v>
+      </c>
+      <c r="M109" s="8" t="s">
+        <v>2129</v>
+      </c>
+      <c r="N109" s="24"/>
+      <c r="O109" s="25"/>
+      <c r="P109" s="25"/>
+      <c r="Q109" s="11"/>
+    </row>
+    <row r="110" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="3" t="s">
+        <v>1885</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>2188</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>2189</v>
+      </c>
+      <c r="D110" s="8" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E110" s="8" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F110" s="8" t="s">
+        <v>2191</v>
+      </c>
+      <c r="G110" s="8" t="s">
+        <v>2192</v>
+      </c>
+      <c r="H110" s="8" t="s">
+        <v>2193</v>
+      </c>
+      <c r="I110" s="8" t="s">
+        <v>2125</v>
+      </c>
+      <c r="J110" s="24"/>
+      <c r="K110" s="25"/>
+      <c r="L110" s="25"/>
+      <c r="M110" s="11"/>
+      <c r="N110" s="24"/>
+      <c r="O110" s="25"/>
+      <c r="P110" s="25"/>
+      <c r="Q110" s="11"/>
+    </row>
+    <row r="111" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="3" t="s">
+        <v>1886</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>2194</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>2195</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>2195</v>
+      </c>
+      <c r="E111" s="8" t="s">
+        <v>2041</v>
+      </c>
+      <c r="F111" s="8" t="s">
+        <v>2196</v>
+      </c>
+      <c r="G111" s="8" t="s">
+        <v>2197</v>
+      </c>
+      <c r="H111" s="8" t="s">
+        <v>1981</v>
+      </c>
+      <c r="I111" s="8" t="s">
+        <v>2126</v>
+      </c>
+      <c r="J111" s="24"/>
+      <c r="K111" s="25"/>
+      <c r="L111" s="25"/>
+      <c r="M111" s="11"/>
+      <c r="N111" s="24"/>
+      <c r="O111" s="25"/>
+      <c r="P111" s="25"/>
+      <c r="Q111" s="11"/>
+    </row>
+    <row r="112" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="4"/>
+      <c r="B112" s="8" t="s">
+        <v>2198</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>2199</v>
+      </c>
+      <c r="D112" s="8" t="s">
+        <v>1974</v>
+      </c>
+      <c r="E112" s="8" t="s">
+        <v>1974</v>
+      </c>
+      <c r="F112" s="24"/>
+      <c r="G112" s="25"/>
+      <c r="H112" s="25"/>
+      <c r="I112" s="11"/>
+      <c r="J112" s="24"/>
+      <c r="K112" s="25"/>
+      <c r="L112" s="25"/>
+      <c r="M112" s="11"/>
+      <c r="N112" s="24"/>
+      <c r="O112" s="25"/>
+      <c r="P112" s="25"/>
+      <c r="Q112" s="11"/>
+    </row>
+    <row r="113" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="2" t="s">
+        <v>1913</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>2200</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>1986</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>1994</v>
+      </c>
+      <c r="E113" s="8" t="s">
+        <v>1994</v>
+      </c>
+      <c r="F113" s="8" t="s">
+        <v>2201</v>
+      </c>
+      <c r="G113" s="8" t="s">
+        <v>2202</v>
+      </c>
+      <c r="H113" s="8" t="s">
+        <v>2145</v>
+      </c>
+      <c r="I113" s="8" t="s">
+        <v>2145</v>
+      </c>
+      <c r="J113" s="8" t="s">
+        <v>2203</v>
+      </c>
+      <c r="K113" s="8" t="s">
+        <v>2204</v>
+      </c>
+      <c r="L113" s="8" t="s">
+        <v>2128</v>
+      </c>
+      <c r="M113" s="8" t="s">
+        <v>2128</v>
+      </c>
+      <c r="N113" s="8" t="s">
+        <v>2205</v>
+      </c>
+      <c r="O113" s="8" t="s">
+        <v>2206</v>
+      </c>
+      <c r="P113" s="8" t="s">
+        <v>2140</v>
+      </c>
+      <c r="Q113" s="8" t="s">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="3" t="s">
+        <v>1885</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>2017</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>2207</v>
+      </c>
+      <c r="D114" s="8" t="s">
+        <v>2142</v>
+      </c>
+      <c r="E114" s="8" t="s">
+        <v>2142</v>
+      </c>
+      <c r="F114" s="8" t="s">
+        <v>2208</v>
+      </c>
+      <c r="G114" s="8" t="s">
+        <v>2029</v>
+      </c>
+      <c r="H114" s="8" t="s">
+        <v>1991</v>
+      </c>
+      <c r="I114" s="23" t="s">
+        <v>1991</v>
+      </c>
+      <c r="J114" s="8" t="s">
+        <v>2209</v>
+      </c>
+      <c r="K114" s="8" t="s">
+        <v>2018</v>
+      </c>
+      <c r="L114" s="8" t="s">
+        <v>2146</v>
+      </c>
+      <c r="M114" s="8" t="s">
+        <v>2146</v>
+      </c>
+      <c r="N114" s="8" t="s">
+        <v>2210</v>
+      </c>
+      <c r="O114" s="8" t="s">
+        <v>2019</v>
+      </c>
+      <c r="P114" s="8" t="s">
+        <v>1992</v>
+      </c>
+      <c r="Q114" s="23" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="3" t="s">
+        <v>1886</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>2211</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>2212</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>2002</v>
+      </c>
+      <c r="E115" s="8" t="s">
+        <v>2002</v>
+      </c>
+      <c r="F115" s="8" t="s">
+        <v>2213</v>
+      </c>
+      <c r="G115" s="8" t="s">
+        <v>2214</v>
+      </c>
+      <c r="H115" s="8" t="s">
+        <v>2004</v>
+      </c>
+      <c r="I115" s="8" t="s">
+        <v>2004</v>
+      </c>
+      <c r="J115" s="8" t="s">
+        <v>2215</v>
+      </c>
+      <c r="K115" s="8" t="s">
+        <v>2216</v>
+      </c>
+      <c r="L115" s="8" t="s">
+        <v>2006</v>
+      </c>
+      <c r="M115" s="8" t="s">
+        <v>2006</v>
+      </c>
+      <c r="N115" s="24"/>
+      <c r="O115" s="25"/>
+      <c r="P115" s="25"/>
+      <c r="Q115" s="11"/>
+    </row>
+    <row r="116" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="3"/>
+      <c r="B116" s="8" t="s">
+        <v>2217</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>2218</v>
+      </c>
+      <c r="D116" s="8" t="s">
+        <v>2008</v>
+      </c>
+      <c r="E116" s="8" t="s">
+        <v>2008</v>
+      </c>
+      <c r="F116" s="8" t="s">
+        <v>2219</v>
+      </c>
+      <c r="G116" s="8" t="s">
+        <v>2220</v>
+      </c>
+      <c r="H116" s="8" t="s">
+        <v>2010</v>
+      </c>
+      <c r="I116" s="23" t="s">
+        <v>2127</v>
+      </c>
+      <c r="J116" s="8" t="s">
+        <v>2221</v>
+      </c>
+      <c r="K116" s="8" t="s">
+        <v>2222</v>
+      </c>
+      <c r="L116" s="8" t="s">
+        <v>2012</v>
+      </c>
+      <c r="M116" s="8" t="s">
+        <v>2012</v>
+      </c>
+      <c r="N116" s="24"/>
+      <c r="O116" s="25"/>
+      <c r="P116" s="25"/>
+      <c r="Q116" s="11"/>
+    </row>
+    <row r="117" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="4"/>
+      <c r="B117" s="8" t="s">
+        <v>2166</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>2223</v>
+      </c>
+      <c r="D117" s="8" t="s">
+        <v>2014</v>
+      </c>
+      <c r="E117" s="8" t="s">
+        <v>2014</v>
+      </c>
+      <c r="F117" s="8" t="s">
+        <v>2224</v>
+      </c>
+      <c r="G117" s="8" t="s">
+        <v>2225</v>
+      </c>
+      <c r="H117" s="8" t="s">
+        <v>2016</v>
+      </c>
+      <c r="I117" s="8" t="s">
+        <v>2016</v>
+      </c>
+      <c r="J117" s="24"/>
+      <c r="K117" s="25"/>
+      <c r="L117" s="25"/>
+      <c r="M117" s="12"/>
+      <c r="N117" s="11"/>
+      <c r="O117" s="11"/>
+      <c r="P117" s="11"/>
+      <c r="Q117" s="11"/>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B119" s="22" t="s">
+        <v>2164</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B120" s="13" t="s">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B121" s="13" t="s">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B122" s="14" t="s">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="127" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B127" s="29" t="s">
+        <v>1876</v>
+      </c>
+      <c r="C127" s="30"/>
+      <c r="D127" s="30"/>
+      <c r="E127" s="30"/>
+      <c r="F127" s="29" t="s">
+        <v>1877</v>
+      </c>
+      <c r="G127" s="30"/>
+      <c r="H127" s="30"/>
+      <c r="I127" s="5"/>
+      <c r="J127" s="26" t="s">
+        <v>1878</v>
+      </c>
+      <c r="K127" s="27"/>
+      <c r="L127" s="27"/>
+      <c r="M127" s="28"/>
+      <c r="N127" s="26" t="s">
+        <v>1879</v>
+      </c>
+      <c r="O127" s="27"/>
+      <c r="P127" s="27"/>
+      <c r="Q127" s="28"/>
+    </row>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B128" s="6" t="s">
+        <v>1996</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>1997</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>1975</v>
+      </c>
+      <c r="E128" s="6" t="s">
+        <v>1983</v>
+      </c>
+      <c r="F128" s="6" t="s">
+        <v>1996</v>
+      </c>
+      <c r="G128" s="6" t="s">
+        <v>1997</v>
+      </c>
+      <c r="H128" s="6" t="s">
+        <v>1975</v>
+      </c>
+      <c r="I128" s="6" t="s">
+        <v>1983</v>
+      </c>
+      <c r="J128" s="6" t="s">
+        <v>1996</v>
+      </c>
+      <c r="K128" s="6" t="s">
+        <v>1997</v>
+      </c>
+      <c r="L128" s="6" t="s">
+        <v>1975</v>
+      </c>
+      <c r="M128" s="6" t="s">
+        <v>1983</v>
+      </c>
+      <c r="N128" s="6" t="s">
+        <v>1996</v>
+      </c>
+      <c r="O128" s="6" t="s">
+        <v>1997</v>
+      </c>
+      <c r="P128" s="6" t="s">
+        <v>1975</v>
+      </c>
+      <c r="Q128" s="6" t="s">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B129" s="7" t="s">
+        <v>1998</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D129" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E129" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F129" s="7" t="s">
+        <v>1998</v>
+      </c>
+      <c r="G129" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H129" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I129" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J129" s="7" t="s">
+        <v>1998</v>
+      </c>
+      <c r="K129" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L129" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="M129" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="N129" s="7" t="s">
+        <v>1998</v>
+      </c>
+      <c r="O129" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="P129" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q129" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="2" t="s">
+        <v>1884</v>
+      </c>
+      <c r="B130" s="8" t="s">
+        <v>1887</v>
+      </c>
+      <c r="C130" s="8" t="s">
+        <v>1713</v>
+      </c>
+      <c r="D130" s="8" t="s">
+        <v>1926</v>
+      </c>
+      <c r="E130" s="8" t="s">
+        <v>1926</v>
+      </c>
+      <c r="F130" s="8" t="s">
+        <v>1888</v>
+      </c>
+      <c r="G130" s="8" t="s">
+        <v>1757</v>
+      </c>
+      <c r="H130" s="8" t="s">
+        <v>1757</v>
+      </c>
+      <c r="I130" s="8" t="s">
+        <v>2034</v>
+      </c>
+      <c r="J130" s="8" t="s">
+        <v>1889</v>
+      </c>
+      <c r="K130" s="8" t="s">
+        <v>1794</v>
+      </c>
+      <c r="L130" s="8" t="s">
+        <v>1794</v>
+      </c>
+      <c r="M130" s="8" t="s">
+        <v>2035</v>
+      </c>
+      <c r="N130" s="10"/>
+      <c r="O130" s="11"/>
+      <c r="P130" s="11"/>
+      <c r="Q130" s="11"/>
+    </row>
+    <row r="131" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="3" t="s">
+        <v>1885</v>
+      </c>
+      <c r="B131" s="8" t="s">
+        <v>1890</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>1715</v>
+      </c>
+      <c r="D131" s="8" t="s">
+        <v>1932</v>
+      </c>
+      <c r="E131" s="8" t="s">
+        <v>1932</v>
+      </c>
+      <c r="F131" s="8" t="s">
+        <v>1891</v>
+      </c>
+      <c r="G131" s="8" t="s">
+        <v>1765</v>
+      </c>
+      <c r="H131" s="8" t="s">
+        <v>1765</v>
+      </c>
+      <c r="I131" s="8" t="s">
+        <v>2033</v>
+      </c>
+      <c r="J131" s="8" t="s">
+        <v>1892</v>
+      </c>
+      <c r="K131" s="8" t="s">
+        <v>1797</v>
+      </c>
+      <c r="L131" s="8" t="s">
+        <v>1797</v>
+      </c>
+      <c r="M131" s="8" t="s">
+        <v>2036</v>
+      </c>
+      <c r="N131" s="8" t="s">
+        <v>1893</v>
+      </c>
+      <c r="O131" s="8" t="s">
+        <v>1894</v>
+      </c>
+      <c r="P131" s="8" t="s">
+        <v>1970</v>
+      </c>
+      <c r="Q131" s="8" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="4" t="s">
+        <v>1886</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>2020</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>1895</v>
+      </c>
+      <c r="D132" s="8" t="s">
+        <v>1944</v>
+      </c>
+      <c r="E132" s="8" t="s">
+        <v>1944</v>
+      </c>
+      <c r="F132" s="8" t="s">
+        <v>1896</v>
+      </c>
+      <c r="G132" s="8" t="s">
+        <v>1747</v>
+      </c>
+      <c r="H132" s="8" t="s">
+        <v>1944</v>
+      </c>
+      <c r="I132" s="8" t="s">
+        <v>1944</v>
+      </c>
+      <c r="J132" s="8" t="s">
+        <v>1897</v>
+      </c>
+      <c r="K132" s="8" t="s">
+        <v>1748</v>
+      </c>
+      <c r="L132" s="8" t="s">
+        <v>1748</v>
+      </c>
+      <c r="M132" s="8" t="s">
+        <v>1748</v>
+      </c>
+      <c r="N132" s="8" t="s">
+        <v>1898</v>
+      </c>
+      <c r="O132" s="8" t="s">
+        <v>1899</v>
+      </c>
+      <c r="P132" s="8" t="s">
+        <v>1971</v>
+      </c>
+      <c r="Q132" s="8" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="2" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B133" s="8" t="s">
+        <v>1995</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>1717</v>
+      </c>
+      <c r="D133" s="8" t="s">
+        <v>1719</v>
+      </c>
+      <c r="E133" s="8" t="s">
+        <v>1976</v>
+      </c>
+      <c r="F133" s="8" t="s">
+        <v>1903</v>
+      </c>
+      <c r="G133" s="8" t="s">
+        <v>1769</v>
+      </c>
+      <c r="H133" s="8" t="s">
+        <v>1947</v>
+      </c>
+      <c r="I133" s="8" t="s">
+        <v>1979</v>
+      </c>
+      <c r="J133" s="8" t="s">
+        <v>1904</v>
+      </c>
+      <c r="K133" s="8" t="s">
+        <v>1801</v>
+      </c>
+      <c r="L133" s="8" t="s">
+        <v>1957</v>
+      </c>
+      <c r="M133" s="8" t="s">
+        <v>1982</v>
+      </c>
+      <c r="N133" s="24"/>
+      <c r="O133" s="25"/>
+      <c r="P133" s="25"/>
+      <c r="Q133" s="11"/>
+    </row>
+    <row r="134" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="3" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>1905</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>1720</v>
+      </c>
+      <c r="D134" s="8" t="s">
+        <v>1722</v>
+      </c>
+      <c r="E134" s="8" t="s">
+        <v>1977</v>
+      </c>
+      <c r="F134" s="24"/>
+      <c r="G134" s="25"/>
+      <c r="H134" s="25"/>
+      <c r="I134" s="11"/>
+      <c r="J134" s="8" t="s">
+        <v>1906</v>
+      </c>
+      <c r="K134" s="8" t="s">
+        <v>1806</v>
+      </c>
+      <c r="L134" s="8" t="s">
+        <v>1959</v>
+      </c>
+      <c r="M134" s="8" t="s">
+        <v>1984</v>
+      </c>
+      <c r="N134" s="24"/>
+      <c r="O134" s="25"/>
+      <c r="P134" s="25"/>
+      <c r="Q134" s="11"/>
+    </row>
+    <row r="135" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="3" t="s">
+        <v>1885</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>1907</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>1723</v>
+      </c>
+      <c r="D135" s="8" t="s">
+        <v>1725</v>
+      </c>
+      <c r="E135" s="8" t="s">
+        <v>2190</v>
+      </c>
+      <c r="F135" s="8" t="s">
+        <v>1908</v>
+      </c>
+      <c r="G135" s="8" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H135" s="8" t="s">
+        <v>1943</v>
+      </c>
+      <c r="I135" s="8" t="s">
+        <v>1980</v>
+      </c>
+      <c r="J135" s="24"/>
+      <c r="K135" s="25"/>
+      <c r="L135" s="25"/>
+      <c r="M135" s="11"/>
+      <c r="N135" s="24"/>
+      <c r="O135" s="25"/>
+      <c r="P135" s="25"/>
+      <c r="Q135" s="11"/>
+    </row>
+    <row r="136" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="3" t="s">
+        <v>1886</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>1909</v>
+      </c>
+      <c r="C136" s="8" t="s">
+        <v>1726</v>
+      </c>
+      <c r="D136" s="8" t="s">
+        <v>1726</v>
+      </c>
+      <c r="E136" s="8" t="s">
+        <v>2195</v>
+      </c>
+      <c r="F136" s="8" t="s">
+        <v>1910</v>
+      </c>
+      <c r="G136" s="8" t="s">
+        <v>1911</v>
+      </c>
+      <c r="H136" s="8" t="s">
+        <v>1981</v>
+      </c>
+      <c r="I136" s="8" t="s">
+        <v>1981</v>
+      </c>
+      <c r="J136" s="24"/>
+      <c r="K136" s="25"/>
+      <c r="L136" s="25"/>
+      <c r="M136" s="11"/>
+      <c r="N136" s="24"/>
+      <c r="O136" s="25"/>
+      <c r="P136" s="25"/>
+      <c r="Q136" s="11"/>
+    </row>
+    <row r="137" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="4"/>
+      <c r="B137" s="8" t="s">
+        <v>1912</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>1744</v>
+      </c>
+      <c r="D137" s="8" t="s">
+        <v>1746</v>
+      </c>
+      <c r="E137" s="15" t="s">
+        <v>1974</v>
+      </c>
+      <c r="F137" s="24"/>
+      <c r="G137" s="25"/>
+      <c r="H137" s="25"/>
+      <c r="I137" s="11"/>
+      <c r="J137" s="24"/>
+      <c r="K137" s="25"/>
+      <c r="L137" s="25"/>
+      <c r="M137" s="11"/>
+      <c r="N137" s="24"/>
+      <c r="O137" s="25"/>
+      <c r="P137" s="25"/>
+      <c r="Q137" s="11"/>
+    </row>
+    <row r="138" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="2" t="s">
+        <v>1913</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>1914</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>1729</v>
+      </c>
+      <c r="D138" s="8" t="s">
+        <v>1731</v>
+      </c>
+      <c r="E138" s="8" t="s">
+        <v>1994</v>
+      </c>
+      <c r="F138" s="8" t="s">
+        <v>1915</v>
+      </c>
+      <c r="G138" s="8" t="s">
+        <v>1779</v>
+      </c>
+      <c r="H138" s="8" t="s">
+        <v>1949</v>
+      </c>
+      <c r="I138" s="8" t="s">
+        <v>2139</v>
+      </c>
+      <c r="J138" s="8" t="s">
+        <v>1916</v>
+      </c>
+      <c r="K138" s="8" t="s">
+        <v>1810</v>
+      </c>
+      <c r="L138" s="8" t="s">
+        <v>1961</v>
+      </c>
+      <c r="M138" s="8" t="s">
+        <v>2115</v>
+      </c>
+      <c r="N138" s="8" t="s">
+        <v>1917</v>
+      </c>
+      <c r="O138" s="8" t="s">
+        <v>1918</v>
+      </c>
+      <c r="P138" s="8" t="s">
+        <v>2140</v>
+      </c>
+      <c r="Q138" s="8" t="s">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="3" t="s">
+        <v>1885</v>
+      </c>
+      <c r="B139" s="8" t="s">
+        <v>1919</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>1732</v>
+      </c>
+      <c r="D139" s="8" t="s">
+        <v>1734</v>
+      </c>
+      <c r="E139" s="8" t="s">
+        <v>2142</v>
+      </c>
+      <c r="F139" s="8" t="s">
+        <v>1920</v>
+      </c>
+      <c r="G139" s="8" t="s">
+        <v>1783</v>
+      </c>
+      <c r="H139" s="8" t="s">
+        <v>1951</v>
+      </c>
+      <c r="I139" s="23" t="s">
+        <v>1991</v>
+      </c>
+      <c r="J139" s="8" t="s">
+        <v>1921</v>
+      </c>
+      <c r="K139" s="8" t="s">
+        <v>1922</v>
+      </c>
+      <c r="L139" s="8" t="s">
+        <v>1965</v>
+      </c>
+      <c r="M139" s="8" t="s">
+        <v>2143</v>
+      </c>
+      <c r="N139" s="8" t="s">
+        <v>1923</v>
+      </c>
+      <c r="O139" s="8" t="s">
+        <v>1924</v>
+      </c>
+      <c r="P139" s="8" t="s">
+        <v>1992</v>
+      </c>
+      <c r="Q139" s="23" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="140" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="3" t="s">
+        <v>1886</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>2001</v>
+      </c>
+      <c r="C140" s="8" t="s">
+        <v>1735</v>
+      </c>
+      <c r="D140" s="8" t="s">
+        <v>2002</v>
+      </c>
+      <c r="E140" s="8" t="s">
+        <v>2002</v>
+      </c>
+      <c r="F140" s="8" t="s">
+        <v>2003</v>
+      </c>
+      <c r="G140" s="8" t="s">
+        <v>1787</v>
+      </c>
+      <c r="H140" s="8" t="s">
+        <v>2004</v>
+      </c>
+      <c r="I140" s="8" t="s">
+        <v>2117</v>
+      </c>
+      <c r="J140" s="8" t="s">
+        <v>2005</v>
+      </c>
+      <c r="K140" s="8" t="s">
+        <v>1818</v>
+      </c>
+      <c r="L140" s="8" t="s">
+        <v>2006</v>
+      </c>
+      <c r="M140" s="8" t="s">
+        <v>2116</v>
+      </c>
+      <c r="N140" s="24"/>
+      <c r="O140" s="25"/>
+      <c r="P140" s="25"/>
+      <c r="Q140" s="11"/>
+    </row>
+    <row r="141" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="3"/>
+      <c r="B141" s="8" t="s">
+        <v>2007</v>
+      </c>
+      <c r="C141" s="8" t="s">
+        <v>1741</v>
+      </c>
+      <c r="D141" s="8" t="s">
+        <v>2008</v>
+      </c>
+      <c r="E141" s="8" t="s">
+        <v>2008</v>
+      </c>
+      <c r="F141" s="8" t="s">
+        <v>2009</v>
+      </c>
+      <c r="G141" s="8" t="s">
+        <v>1791</v>
+      </c>
+      <c r="H141" s="8" t="s">
+        <v>2010</v>
+      </c>
+      <c r="I141" s="23" t="s">
+        <v>2127</v>
+      </c>
+      <c r="J141" s="8" t="s">
+        <v>2011</v>
+      </c>
+      <c r="K141" s="8" t="s">
+        <v>1925</v>
+      </c>
+      <c r="L141" s="8" t="s">
+        <v>2012</v>
+      </c>
+      <c r="M141" s="8" t="s">
+        <v>2144</v>
+      </c>
+      <c r="N141" s="24"/>
+      <c r="O141" s="25"/>
+      <c r="P141" s="25"/>
+      <c r="Q141" s="11"/>
+    </row>
+    <row r="142" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="4"/>
+      <c r="B142" s="8" t="s">
+        <v>2013</v>
+      </c>
+      <c r="C142" s="8" t="s">
+        <v>1738</v>
+      </c>
+      <c r="D142" s="8" t="s">
+        <v>2014</v>
+      </c>
+      <c r="E142" s="8" t="s">
+        <v>2014</v>
+      </c>
+      <c r="F142" s="8" t="s">
+        <v>2015</v>
+      </c>
+      <c r="G142" s="8" t="s">
+        <v>1842</v>
+      </c>
+      <c r="H142" s="8" t="s">
+        <v>2016</v>
+      </c>
+      <c r="I142" s="8" t="s">
+        <v>2118</v>
+      </c>
+      <c r="J142" s="24"/>
+      <c r="K142" s="25"/>
+      <c r="L142" s="25"/>
+      <c r="M142" s="12"/>
+      <c r="N142" s="11"/>
+      <c r="O142" s="11"/>
+      <c r="P142" s="11"/>
+      <c r="Q142" s="11"/>
+    </row>
+    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B144" s="22" t="s">
+        <v>2226</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B145" s="13" t="s">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B146" s="13" t="s">
         <v>2000</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>2001</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>1975</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>1983</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>2000</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>2001</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>1975</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>1983</v>
-      </c>
-      <c r="J27" s="6" t="s">
-        <v>2000</v>
-      </c>
-      <c r="K27" s="6" t="s">
-        <v>2001</v>
-      </c>
-      <c r="L27" s="6" t="s">
-        <v>1975</v>
-      </c>
-      <c r="M27" s="6" t="s">
-        <v>1983</v>
-      </c>
-      <c r="N27" s="6" t="s">
-        <v>2000</v>
-      </c>
-      <c r="O27" s="6" t="s">
-        <v>2001</v>
-      </c>
-      <c r="P27" s="6" t="s">
-        <v>1975</v>
-      </c>
-      <c r="Q27" s="6" t="s">
-        <v>1983</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="7" t="s">
-        <v>2002</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>2002</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>2002</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="M28" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="N28" s="7" t="s">
-        <v>2002</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>1884</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>1887</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>1713</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>1926</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>1926</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>1888</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>1757</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>1757</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>1993</v>
-      </c>
-      <c r="J29" s="8" t="s">
-        <v>1889</v>
-      </c>
-      <c r="K29" s="8" t="s">
-        <v>1794</v>
-      </c>
-      <c r="L29" s="8" t="s">
-        <v>1794</v>
-      </c>
-      <c r="M29" s="8" t="s">
-        <v>1996</v>
-      </c>
-      <c r="N29" s="10"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="11"/>
-    </row>
-    <row r="30" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
-        <v>1885</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>1890</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>1715</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>1932</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>1932</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>1891</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>1765</v>
-      </c>
-      <c r="H30" s="8" t="s">
-        <v>1765</v>
-      </c>
-      <c r="I30" s="8" t="s">
-        <v>1994</v>
-      </c>
-      <c r="J30" s="8" t="s">
-        <v>1892</v>
-      </c>
-      <c r="K30" s="8" t="s">
-        <v>1797</v>
-      </c>
-      <c r="L30" s="8" t="s">
-        <v>1797</v>
-      </c>
-      <c r="M30" s="8" t="s">
-        <v>1995</v>
-      </c>
-      <c r="N30" s="8" t="s">
-        <v>1893</v>
-      </c>
-      <c r="O30" s="8" t="s">
-        <v>1894</v>
-      </c>
-      <c r="P30" s="8" t="s">
-        <v>1970</v>
-      </c>
-      <c r="Q30" s="8" t="s">
-        <v>1970</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
-        <v>1886</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>2035</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>1895</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>1944</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>1944</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>1896</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>1747</v>
-      </c>
-      <c r="H31" s="8" t="s">
-        <v>1944</v>
-      </c>
-      <c r="I31" s="8" t="s">
-        <v>1944</v>
-      </c>
-      <c r="J31" s="8" t="s">
-        <v>1897</v>
-      </c>
-      <c r="K31" s="8" t="s">
-        <v>1748</v>
-      </c>
-      <c r="L31" s="8" t="s">
-        <v>1748</v>
-      </c>
-      <c r="M31" s="8" t="s">
-        <v>1748</v>
-      </c>
-      <c r="N31" s="8" t="s">
-        <v>1898</v>
-      </c>
-      <c r="O31" s="8" t="s">
-        <v>1899</v>
-      </c>
-      <c r="P31" s="8" t="s">
-        <v>1971</v>
-      </c>
-      <c r="Q31" s="8" t="s">
-        <v>1971</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>1900</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>1999</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>1717</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>1719</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>1976</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>1903</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>1769</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>1947</v>
-      </c>
-      <c r="I32" s="8" t="s">
-        <v>1979</v>
-      </c>
-      <c r="J32" s="8" t="s">
-        <v>1904</v>
-      </c>
-      <c r="K32" s="8" t="s">
-        <v>1801</v>
-      </c>
-      <c r="L32" s="8" t="s">
-        <v>1957</v>
-      </c>
-      <c r="M32" s="8" t="s">
-        <v>1982</v>
-      </c>
-      <c r="N32" s="15"/>
-      <c r="O32" s="16"/>
-      <c r="P32" s="16"/>
-      <c r="Q32" s="11"/>
-    </row>
-    <row r="33" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
-        <v>1901</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>1905</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>1720</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>1722</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>1977</v>
-      </c>
-      <c r="F33" s="15"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="8" t="s">
-        <v>1906</v>
-      </c>
-      <c r="K33" s="8" t="s">
-        <v>1806</v>
-      </c>
-      <c r="L33" s="8" t="s">
-        <v>1959</v>
-      </c>
-      <c r="M33" s="8" t="s">
-        <v>1984</v>
-      </c>
-      <c r="N33" s="15"/>
-      <c r="O33" s="16"/>
-      <c r="P33" s="16"/>
-      <c r="Q33" s="11"/>
-    </row>
-    <row r="34" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
-        <v>1885</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>1907</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>1723</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>1725</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>1725</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>1908</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>1771</v>
-      </c>
-      <c r="H34" s="8" t="s">
-        <v>1943</v>
-      </c>
-      <c r="I34" s="8" t="s">
-        <v>1980</v>
-      </c>
-      <c r="J34" s="15"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="15"/>
-      <c r="O34" s="16"/>
-      <c r="P34" s="16"/>
-      <c r="Q34" s="11"/>
-    </row>
-    <row r="35" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
-        <v>1886</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>1909</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>1726</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>1726</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>1726</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>1910</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>1911</v>
-      </c>
-      <c r="H35" s="8" t="s">
-        <v>1981</v>
-      </c>
-      <c r="I35" s="8" t="s">
-        <v>1981</v>
-      </c>
-      <c r="J35" s="15"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="11"/>
-      <c r="N35" s="15"/>
-      <c r="O35" s="16"/>
-      <c r="P35" s="16"/>
-      <c r="Q35" s="11"/>
-    </row>
-    <row r="36" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="4"/>
-      <c r="B36" s="8" t="s">
-        <v>1912</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>1744</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>1746</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>1978</v>
-      </c>
-      <c r="F36" s="15"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="16"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="15"/>
-      <c r="O36" s="16"/>
-      <c r="P36" s="16"/>
-      <c r="Q36" s="11"/>
-    </row>
-    <row r="37" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
-        <v>1913</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>1914</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>1729</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>1731</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>1986</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>1915</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>1779</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>1949</v>
-      </c>
-      <c r="I37" s="8" t="s">
-        <v>1985</v>
-      </c>
-      <c r="J37" s="8" t="s">
-        <v>1916</v>
-      </c>
-      <c r="K37" s="8" t="s">
-        <v>1810</v>
-      </c>
-      <c r="L37" s="8" t="s">
-        <v>1961</v>
-      </c>
-      <c r="M37" s="8" t="s">
-        <v>1989</v>
-      </c>
-      <c r="N37" s="8" t="s">
-        <v>1917</v>
-      </c>
-      <c r="O37" s="8" t="s">
-        <v>1918</v>
-      </c>
-      <c r="P37" s="8" t="s">
-        <v>2009</v>
-      </c>
-      <c r="Q37" s="8" t="s">
-        <v>1990</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
-        <v>1885</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>1919</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>1732</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>1734</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>1987</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>1920</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>1783</v>
-      </c>
-      <c r="H38" s="8" t="s">
-        <v>1951</v>
-      </c>
-      <c r="I38" s="23" t="s">
-        <v>2044</v>
-      </c>
-      <c r="J38" s="8" t="s">
-        <v>1921</v>
-      </c>
-      <c r="K38" s="8" t="s">
-        <v>1922</v>
-      </c>
-      <c r="L38" s="8" t="s">
-        <v>1965</v>
-      </c>
-      <c r="M38" s="8" t="s">
-        <v>1988</v>
-      </c>
-      <c r="N38" s="8" t="s">
-        <v>1923</v>
-      </c>
-      <c r="O38" s="8" t="s">
-        <v>1924</v>
-      </c>
-      <c r="P38" s="8" t="s">
-        <v>1992</v>
-      </c>
-      <c r="Q38" s="23" t="s">
-        <v>2046</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
-        <v>1886</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>2012</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>1735</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>2013</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>2036</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>2014</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>1787</v>
-      </c>
-      <c r="H39" s="8" t="s">
-        <v>2015</v>
-      </c>
-      <c r="I39" s="8" t="s">
-        <v>2037</v>
-      </c>
-      <c r="J39" s="8" t="s">
-        <v>2016</v>
-      </c>
-      <c r="K39" s="8" t="s">
-        <v>1818</v>
-      </c>
-      <c r="L39" s="8" t="s">
-        <v>2017</v>
-      </c>
-      <c r="M39" s="8" t="s">
-        <v>2038</v>
-      </c>
-      <c r="N39" s="15"/>
-      <c r="O39" s="16"/>
-      <c r="P39" s="16"/>
-      <c r="Q39" s="11"/>
-    </row>
-    <row r="40" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="3"/>
-      <c r="B40" s="8" t="s">
-        <v>2018</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>1741</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>2019</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>2039</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>2021</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>1791</v>
-      </c>
-      <c r="H40" s="8" t="s">
-        <v>2022</v>
-      </c>
-      <c r="I40" s="23" t="s">
-        <v>2045</v>
-      </c>
-      <c r="J40" s="8" t="s">
-        <v>2023</v>
-      </c>
-      <c r="K40" s="8" t="s">
-        <v>1925</v>
-      </c>
-      <c r="L40" s="8" t="s">
-        <v>2024</v>
-      </c>
-      <c r="M40" s="8" t="s">
-        <v>2040</v>
-      </c>
-      <c r="N40" s="15"/>
-      <c r="O40" s="16"/>
-      <c r="P40" s="16"/>
-      <c r="Q40" s="11"/>
-    </row>
-    <row r="41" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="4"/>
-      <c r="B41" s="8" t="s">
-        <v>2026</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>1738</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>2027</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>2041</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>2029</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>1842</v>
-      </c>
-      <c r="H41" s="8" t="s">
-        <v>2030</v>
-      </c>
-      <c r="I41" s="8" t="s">
-        <v>2042</v>
-      </c>
-      <c r="J41" s="15"/>
-      <c r="K41" s="16"/>
-      <c r="L41" s="16"/>
-      <c r="M41" s="12"/>
-      <c r="N41" s="11"/>
-      <c r="O41" s="11"/>
-      <c r="P41" s="11"/>
-      <c r="Q41" s="11"/>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B44" s="13" t="s">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B45" s="14" t="s">
-        <v>2043</v>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B147" s="14" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B148" s="13" t="s">
+        <v>2228</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B149" s="13" t="s">
+        <v>2229</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="F1:H1"/>
+  <mergeCells count="113">
+    <mergeCell ref="N140:P140"/>
+    <mergeCell ref="N141:P141"/>
+    <mergeCell ref="J142:L142"/>
+    <mergeCell ref="J136:L136"/>
+    <mergeCell ref="N136:P136"/>
+    <mergeCell ref="F137:H137"/>
+    <mergeCell ref="J137:L137"/>
+    <mergeCell ref="N137:P137"/>
+    <mergeCell ref="N133:P133"/>
+    <mergeCell ref="F134:H134"/>
+    <mergeCell ref="N134:P134"/>
+    <mergeCell ref="J135:L135"/>
+    <mergeCell ref="N135:P135"/>
+    <mergeCell ref="AG1:AJ1"/>
+    <mergeCell ref="B127:E127"/>
+    <mergeCell ref="F127:H127"/>
+    <mergeCell ref="J127:M127"/>
+    <mergeCell ref="N127:Q127"/>
+    <mergeCell ref="J67:L67"/>
+    <mergeCell ref="N58:P58"/>
+    <mergeCell ref="F59:H59"/>
+    <mergeCell ref="N59:P59"/>
+    <mergeCell ref="J60:L60"/>
+    <mergeCell ref="N60:P60"/>
+    <mergeCell ref="J61:L61"/>
+    <mergeCell ref="N61:P61"/>
+    <mergeCell ref="F62:H62"/>
+    <mergeCell ref="J62:L62"/>
+    <mergeCell ref="N62:P62"/>
+    <mergeCell ref="N65:P65"/>
+    <mergeCell ref="N66:P66"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="N26:Q26"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="F52:H52"/>
+    <mergeCell ref="N52:Q52"/>
     <mergeCell ref="J1:M1"/>
-    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="J52:M52"/>
     <mergeCell ref="N15:P15"/>
     <mergeCell ref="J16:L16"/>
     <mergeCell ref="J10:L10"/>
@@ -23334,20 +28108,73 @@
     <mergeCell ref="J11:L11"/>
     <mergeCell ref="N11:P11"/>
     <mergeCell ref="N14:P14"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="N7:P7"/>
-    <mergeCell ref="J41:L41"/>
-    <mergeCell ref="N32:P32"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="N33:P33"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="N34:P34"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="N35:P35"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="N36:P36"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="N40:P40"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="F77:H77"/>
+    <mergeCell ref="J77:M77"/>
+    <mergeCell ref="N77:Q77"/>
+    <mergeCell ref="N83:P83"/>
+    <mergeCell ref="F84:H84"/>
+    <mergeCell ref="N84:P84"/>
+    <mergeCell ref="J85:L85"/>
+    <mergeCell ref="N85:P85"/>
+    <mergeCell ref="J86:L86"/>
+    <mergeCell ref="N86:P86"/>
+    <mergeCell ref="F87:H87"/>
+    <mergeCell ref="J87:L87"/>
+    <mergeCell ref="N87:P87"/>
+    <mergeCell ref="N90:P90"/>
+    <mergeCell ref="N91:P91"/>
+    <mergeCell ref="J92:L92"/>
+    <mergeCell ref="B102:E102"/>
+    <mergeCell ref="F102:H102"/>
+    <mergeCell ref="J102:M102"/>
+    <mergeCell ref="N102:Q102"/>
+    <mergeCell ref="F112:H112"/>
+    <mergeCell ref="J112:L112"/>
+    <mergeCell ref="N112:P112"/>
+    <mergeCell ref="N108:P108"/>
+    <mergeCell ref="F109:H109"/>
+    <mergeCell ref="N109:P109"/>
+    <mergeCell ref="J110:L110"/>
+    <mergeCell ref="N110:P110"/>
+    <mergeCell ref="N115:P115"/>
+    <mergeCell ref="N116:P116"/>
+    <mergeCell ref="J117:L117"/>
+    <mergeCell ref="J111:L111"/>
+    <mergeCell ref="N111:P111"/>
+    <mergeCell ref="AG14:AI14"/>
+    <mergeCell ref="AG15:AI15"/>
+    <mergeCell ref="AC16:AE16"/>
+    <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="U1:X1"/>
+    <mergeCell ref="AC10:AE10"/>
+    <mergeCell ref="AG10:AI10"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="AC11:AE11"/>
+    <mergeCell ref="AG11:AI11"/>
+    <mergeCell ref="AG7:AI7"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="AG8:AI8"/>
+    <mergeCell ref="AC9:AE9"/>
+    <mergeCell ref="AG9:AI9"/>
+    <mergeCell ref="AC1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/phoneme-system-comparision/mandarin-xsampa-ipa-revised.xlsx
+++ b/phoneme-system-comparision/mandarin-xsampa-ipa-revised.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VITS-tacotron2\SingingVoice-MFA-Training\SingingVoice-MFA-Training\phoneme-system-comparision\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E3542C2-CAED-4642-9868-5EDCE0B90925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEDA1C0B-8454-4859-BE6E-1532042C1376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5589" uniqueCount="2241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5389" uniqueCount="2239">
   <si>
     <t>拼音</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -6669,12 +6669,6 @@
   </si>
   <si>
     <t>边音</t>
-  </si>
-  <si>
-    <t>清音</t>
-  </si>
-  <si>
-    <t>浊音</t>
   </si>
   <si>
     <t>/pʰ/</t>
@@ -8710,13 +8704,13 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -23364,10 +23358,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C53B8B-BB9A-45A4-A2A3-C24DB08DB2BC}">
-  <dimension ref="A1:AJ149"/>
+  <dimension ref="A1:Q149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AJ6" sqref="AJ6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26:O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -23376,7 +23370,7 @@
     <col min="2" max="2" width="7.33203125" customWidth="1"/>
     <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.21875" customWidth="1"/>
     <col min="6" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.77734375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.44140625" bestFit="1" customWidth="1"/>
@@ -23390,26 +23384,10 @@
     <col min="17" max="17" width="6.21875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="6.109375" customWidth="1"/>
     <col min="19" max="19" width="6.5546875" customWidth="1"/>
-    <col min="20" max="20" width="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="6.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="33" t="s">
+    <row r="1" spans="1:17" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="31" t="s">
         <v>1876</v>
       </c>
       <c r="C1" s="30"/>
@@ -23433,32 +23411,8 @@
       <c r="O1" s="27"/>
       <c r="P1" s="27"/>
       <c r="Q1" s="28"/>
-      <c r="U1" s="26" t="s">
-        <v>1876</v>
-      </c>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="26" t="s">
-        <v>1877</v>
-      </c>
-      <c r="Z1" s="27"/>
-      <c r="AA1" s="27"/>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="26" t="s">
-        <v>1878</v>
-      </c>
-      <c r="AD1" s="27"/>
-      <c r="AE1" s="27"/>
-      <c r="AF1" s="28"/>
-      <c r="AG1" s="26" t="s">
-        <v>1879</v>
-      </c>
-      <c r="AH1" s="27"/>
-      <c r="AI1" s="27"/>
-      <c r="AJ1" s="28"/>
-    </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
         <v>1880</v>
       </c>
@@ -23507,56 +23461,8 @@
       <c r="Q2" s="6" t="s">
         <v>1983</v>
       </c>
-      <c r="U2" s="6" t="s">
-        <v>1880</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>1882</v>
-      </c>
-      <c r="W2" s="6" t="s">
-        <v>1975</v>
-      </c>
-      <c r="X2" s="6" t="s">
-        <v>2148</v>
-      </c>
-      <c r="Y2" s="6" t="s">
-        <v>1996</v>
-      </c>
-      <c r="Z2" s="6" t="s">
-        <v>1997</v>
-      </c>
-      <c r="AA2" s="6" t="s">
-        <v>1975</v>
-      </c>
-      <c r="AB2" s="6" t="s">
-        <v>2148</v>
-      </c>
-      <c r="AC2" s="6" t="s">
-        <v>1996</v>
-      </c>
-      <c r="AD2" s="6" t="s">
-        <v>1997</v>
-      </c>
-      <c r="AE2" s="6" t="s">
-        <v>1975</v>
-      </c>
-      <c r="AF2" s="6" t="s">
-        <v>1983</v>
-      </c>
-      <c r="AG2" s="6" t="s">
-        <v>1996</v>
-      </c>
-      <c r="AH2" s="6" t="s">
-        <v>1997</v>
-      </c>
-      <c r="AI2" s="6" t="s">
-        <v>1975</v>
-      </c>
-      <c r="AJ2" s="6" t="s">
-        <v>1983</v>
-      </c>
-    </row>
-    <row r="3" spans="1:36" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>1881</v>
       </c>
@@ -23605,56 +23511,8 @@
       <c r="Q3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="U3" s="7" t="s">
-        <v>1881</v>
-      </c>
-      <c r="V3" s="7" t="s">
-        <v>1883</v>
-      </c>
-      <c r="W3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="X3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y3" s="7" t="s">
-        <v>1998</v>
-      </c>
-      <c r="Z3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC3" s="7" t="s">
-        <v>1998</v>
-      </c>
-      <c r="AD3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG3" s="7" t="s">
-        <v>1998</v>
-      </c>
-      <c r="AH3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ3" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:36" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>1884</v>
       </c>
@@ -23698,51 +23556,8 @@
       <c r="O4" s="11"/>
       <c r="P4" s="11"/>
       <c r="Q4" s="11"/>
-      <c r="T4" s="2" t="s">
-        <v>1884</v>
-      </c>
-      <c r="U4" s="9" t="s">
-        <v>1887</v>
-      </c>
-      <c r="V4" s="8" t="s">
-        <v>1713</v>
-      </c>
-      <c r="W4" s="8" t="s">
-        <v>1926</v>
-      </c>
-      <c r="X4" s="8" t="s">
-        <v>2135</v>
-      </c>
-      <c r="Y4" s="8" t="s">
-        <v>1999</v>
-      </c>
-      <c r="Z4" s="8" t="s">
-        <v>1757</v>
-      </c>
-      <c r="AA4" s="8" t="s">
-        <v>1993</v>
-      </c>
-      <c r="AB4" s="23" t="s">
-        <v>2149</v>
-      </c>
-      <c r="AC4" s="8" t="s">
-        <v>1889</v>
-      </c>
-      <c r="AD4" s="8" t="s">
-        <v>1794</v>
-      </c>
-      <c r="AE4" s="8" t="s">
-        <v>1794</v>
-      </c>
-      <c r="AF4" s="23" t="s">
-        <v>2155</v>
-      </c>
-      <c r="AG4" s="10"/>
-      <c r="AH4" s="11"/>
-      <c r="AI4" s="11"/>
-      <c r="AJ4" s="11"/>
-    </row>
-    <row r="5" spans="1:36" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:17" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>1885</v>
       </c>
@@ -23794,64 +23609,13 @@
       <c r="Q5" s="23" t="s">
         <v>2037</v>
       </c>
-      <c r="T5" s="3" t="s">
-        <v>1885</v>
-      </c>
-      <c r="U5" s="8" t="s">
-        <v>1890</v>
-      </c>
-      <c r="V5" s="8" t="s">
-        <v>1715</v>
-      </c>
-      <c r="W5" s="8" t="s">
-        <v>1932</v>
-      </c>
-      <c r="X5" s="8" t="s">
-        <v>2136</v>
-      </c>
-      <c r="Y5" s="8" t="s">
-        <v>1891</v>
-      </c>
-      <c r="Z5" s="8" t="s">
-        <v>1765</v>
-      </c>
-      <c r="AA5" s="8" t="s">
-        <v>1765</v>
-      </c>
-      <c r="AB5" s="23" t="s">
-        <v>2150</v>
-      </c>
-      <c r="AC5" s="8" t="s">
-        <v>1892</v>
-      </c>
-      <c r="AD5" s="8" t="s">
-        <v>1797</v>
-      </c>
-      <c r="AE5" s="8" t="s">
-        <v>1797</v>
-      </c>
-      <c r="AF5" s="23" t="s">
-        <v>2154</v>
-      </c>
-      <c r="AG5" s="8" t="s">
-        <v>1893</v>
-      </c>
-      <c r="AH5" s="8" t="s">
-        <v>1894</v>
-      </c>
-      <c r="AI5" s="8" t="s">
-        <v>1970</v>
-      </c>
-      <c r="AJ5" s="23" t="s">
-        <v>2160</v>
-      </c>
-    </row>
-    <row r="6" spans="1:36" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>1886</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>2105</v>
+        <v>2103</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>1895</v>
@@ -23884,7 +23648,7 @@
         <v>1748</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>2161</v>
+        <v>2159</v>
       </c>
       <c r="N6" s="8" t="s">
         <v>1898</v>
@@ -23898,59 +23662,8 @@
       <c r="Q6" s="8" t="s">
         <v>1971</v>
       </c>
-      <c r="T6" s="4" t="s">
-        <v>1886</v>
-      </c>
-      <c r="U6" s="8" t="s">
-        <v>2105</v>
-      </c>
-      <c r="V6" s="8" t="s">
-        <v>1895</v>
-      </c>
-      <c r="W6" s="8" t="s">
-        <v>1944</v>
-      </c>
-      <c r="X6" s="8" t="s">
-        <v>1944</v>
-      </c>
-      <c r="Y6" s="8" t="s">
-        <v>1896</v>
-      </c>
-      <c r="Z6" s="8" t="s">
-        <v>1747</v>
-      </c>
-      <c r="AA6" s="8" t="s">
-        <v>1944</v>
-      </c>
-      <c r="AB6" s="8" t="s">
-        <v>1944</v>
-      </c>
-      <c r="AC6" s="8" t="s">
-        <v>1897</v>
-      </c>
-      <c r="AD6" s="8" t="s">
-        <v>1748</v>
-      </c>
-      <c r="AE6" s="8" t="s">
-        <v>1748</v>
-      </c>
-      <c r="AF6" s="8" t="s">
-        <v>1748</v>
-      </c>
-      <c r="AG6" s="8" t="s">
-        <v>1898</v>
-      </c>
-      <c r="AH6" s="8" t="s">
-        <v>1899</v>
-      </c>
-      <c r="AI6" s="8" t="s">
-        <v>1971</v>
-      </c>
-      <c r="AJ6" s="8" t="s">
-        <v>1971</v>
-      </c>
-    </row>
-    <row r="7" spans="1:36" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:17" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1900</v>
       </c>
@@ -23976,7 +23689,7 @@
         <v>1947</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>2110</v>
+        <v>2108</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>1904</v>
@@ -23988,57 +23701,14 @@
         <v>1957</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>2113</v>
+        <v>2111</v>
       </c>
       <c r="N7" s="24"/>
       <c r="O7" s="25"/>
       <c r="P7" s="25"/>
       <c r="Q7" s="11"/>
-      <c r="T7" s="2" t="s">
-        <v>1900</v>
-      </c>
-      <c r="U7" s="8" t="s">
-        <v>1902</v>
-      </c>
-      <c r="V7" s="8" t="s">
-        <v>1717</v>
-      </c>
-      <c r="W7" s="8" t="s">
-        <v>1719</v>
-      </c>
-      <c r="X7" s="8" t="s">
-        <v>2233</v>
-      </c>
-      <c r="Y7" s="8" t="s">
-        <v>1903</v>
-      </c>
-      <c r="Z7" s="8" t="s">
-        <v>1769</v>
-      </c>
-      <c r="AA7" s="8" t="s">
-        <v>1947</v>
-      </c>
-      <c r="AB7" s="8" t="s">
-        <v>2232</v>
-      </c>
-      <c r="AC7" s="8" t="s">
-        <v>1904</v>
-      </c>
-      <c r="AD7" s="8" t="s">
-        <v>1801</v>
-      </c>
-      <c r="AE7" s="8" t="s">
-        <v>1957</v>
-      </c>
-      <c r="AF7" s="8" t="s">
-        <v>2238</v>
-      </c>
-      <c r="AG7" s="24"/>
-      <c r="AH7" s="25"/>
-      <c r="AI7" s="25"/>
-      <c r="AJ7" s="11"/>
-    </row>
-    <row r="8" spans="1:36" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>1901</v>
       </c>
@@ -24068,49 +23738,14 @@
         <v>1959</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>2114</v>
+        <v>2112</v>
       </c>
       <c r="N8" s="24"/>
       <c r="O8" s="25"/>
       <c r="P8" s="25"/>
       <c r="Q8" s="11"/>
-      <c r="T8" s="3" t="s">
-        <v>1901</v>
-      </c>
-      <c r="U8" s="8" t="s">
-        <v>1905</v>
-      </c>
-      <c r="V8" s="8" t="s">
-        <v>1720</v>
-      </c>
-      <c r="W8" s="8" t="s">
-        <v>1722</v>
-      </c>
-      <c r="X8" s="8" t="s">
-        <v>1977</v>
-      </c>
-      <c r="Y8" s="24"/>
-      <c r="Z8" s="25"/>
-      <c r="AA8" s="25"/>
-      <c r="AB8" s="11"/>
-      <c r="AC8" s="8" t="s">
-        <v>1906</v>
-      </c>
-      <c r="AD8" s="8" t="s">
-        <v>1806</v>
-      </c>
-      <c r="AE8" s="8" t="s">
-        <v>1959</v>
-      </c>
-      <c r="AF8" s="8" t="s">
-        <v>2239</v>
-      </c>
-      <c r="AG8" s="24"/>
-      <c r="AH8" s="25"/>
-      <c r="AI8" s="25"/>
-      <c r="AJ8" s="11"/>
-    </row>
-    <row r="9" spans="1:36" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:17" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>1885</v>
       </c>
@@ -24136,7 +23771,7 @@
         <v>1943</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>2111</v>
+        <v>2109</v>
       </c>
       <c r="J9" s="24"/>
       <c r="K9" s="25"/>
@@ -24146,43 +23781,8 @@
       <c r="O9" s="25"/>
       <c r="P9" s="25"/>
       <c r="Q9" s="11"/>
-      <c r="T9" s="3" t="s">
-        <v>1885</v>
-      </c>
-      <c r="U9" s="8" t="s">
-        <v>1907</v>
-      </c>
-      <c r="V9" s="8" t="s">
-        <v>1723</v>
-      </c>
-      <c r="W9" s="8" t="s">
-        <v>1725</v>
-      </c>
-      <c r="X9" s="8" t="s">
-        <v>2234</v>
-      </c>
-      <c r="Y9" s="8" t="s">
-        <v>1908</v>
-      </c>
-      <c r="Z9" s="8" t="s">
-        <v>1771</v>
-      </c>
-      <c r="AA9" s="8" t="s">
-        <v>1943</v>
-      </c>
-      <c r="AB9" s="8" t="s">
-        <v>2236</v>
-      </c>
-      <c r="AC9" s="24"/>
-      <c r="AD9" s="25"/>
-      <c r="AE9" s="25"/>
-      <c r="AF9" s="11"/>
-      <c r="AG9" s="24"/>
-      <c r="AH9" s="25"/>
-      <c r="AI9" s="25"/>
-      <c r="AJ9" s="11"/>
-    </row>
-    <row r="10" spans="1:36" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>1886</v>
       </c>
@@ -24208,7 +23808,7 @@
         <v>1981</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>2112</v>
+        <v>2110</v>
       </c>
       <c r="J10" s="24"/>
       <c r="K10" s="25"/>
@@ -24218,43 +23818,8 @@
       <c r="O10" s="25"/>
       <c r="P10" s="25"/>
       <c r="Q10" s="11"/>
-      <c r="T10" s="3" t="s">
-        <v>1886</v>
-      </c>
-      <c r="U10" s="8" t="s">
-        <v>1909</v>
-      </c>
-      <c r="V10" s="8" t="s">
-        <v>1726</v>
-      </c>
-      <c r="W10" s="8" t="s">
-        <v>1726</v>
-      </c>
-      <c r="X10" s="8" t="s">
-        <v>2235</v>
-      </c>
-      <c r="Y10" s="8" t="s">
-        <v>1910</v>
-      </c>
-      <c r="Z10" s="8" t="s">
-        <v>1911</v>
-      </c>
-      <c r="AA10" s="8" t="s">
-        <v>1981</v>
-      </c>
-      <c r="AB10" s="8" t="s">
-        <v>2237</v>
-      </c>
-      <c r="AC10" s="24"/>
-      <c r="AD10" s="25"/>
-      <c r="AE10" s="25"/>
-      <c r="AF10" s="11"/>
-      <c r="AG10" s="24"/>
-      <c r="AH10" s="25"/>
-      <c r="AI10" s="25"/>
-      <c r="AJ10" s="11"/>
-    </row>
-    <row r="11" spans="1:36" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:17" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="8" t="s">
         <v>1912</v>
@@ -24280,33 +23845,8 @@
       <c r="O11" s="25"/>
       <c r="P11" s="25"/>
       <c r="Q11" s="11"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="8" t="s">
-        <v>1912</v>
-      </c>
-      <c r="V11" s="8" t="s">
-        <v>1744</v>
-      </c>
-      <c r="W11" s="8" t="s">
-        <v>1746</v>
-      </c>
-      <c r="X11" s="8" t="s">
-        <v>1974</v>
-      </c>
-      <c r="Y11" s="24"/>
-      <c r="Z11" s="25"/>
-      <c r="AA11" s="25"/>
-      <c r="AB11" s="11"/>
-      <c r="AC11" s="24"/>
-      <c r="AD11" s="25"/>
-      <c r="AE11" s="25"/>
-      <c r="AF11" s="11"/>
-      <c r="AG11" s="24"/>
-      <c r="AH11" s="25"/>
-      <c r="AI11" s="25"/>
-      <c r="AJ11" s="11"/>
-    </row>
-    <row r="12" spans="1:36" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>1913</v>
       </c>
@@ -24332,7 +23872,7 @@
         <v>1949</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>2139</v>
+        <v>2137</v>
       </c>
       <c r="J12" s="8" t="s">
         <v>1916</v>
@@ -24344,7 +23884,7 @@
         <v>1961</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>2115</v>
+        <v>2113</v>
       </c>
       <c r="N12" s="8" t="s">
         <v>1917</v>
@@ -24353,64 +23893,13 @@
         <v>1918</v>
       </c>
       <c r="P12" s="8" t="s">
-        <v>2140</v>
+        <v>2138</v>
       </c>
       <c r="Q12" s="8" t="s">
-        <v>2141</v>
-      </c>
-      <c r="T12" s="2" t="s">
-        <v>1913</v>
-      </c>
-      <c r="U12" s="8" t="s">
-        <v>1914</v>
-      </c>
-      <c r="V12" s="8" t="s">
-        <v>1729</v>
-      </c>
-      <c r="W12" s="8" t="s">
-        <v>1731</v>
-      </c>
-      <c r="X12" s="8" t="s">
-        <v>2137</v>
-      </c>
-      <c r="Y12" s="8" t="s">
-        <v>1915</v>
-      </c>
-      <c r="Z12" s="8" t="s">
-        <v>1779</v>
-      </c>
-      <c r="AA12" s="8" t="s">
-        <v>1949</v>
-      </c>
-      <c r="AB12" s="8" t="s">
-        <v>2151</v>
-      </c>
-      <c r="AC12" s="8" t="s">
-        <v>1916</v>
-      </c>
-      <c r="AD12" s="8" t="s">
-        <v>1810</v>
-      </c>
-      <c r="AE12" s="8" t="s">
-        <v>1961</v>
-      </c>
-      <c r="AF12" s="8" t="s">
-        <v>2156</v>
-      </c>
-      <c r="AG12" s="8" t="s">
-        <v>1917</v>
-      </c>
-      <c r="AH12" s="8" t="s">
-        <v>1918</v>
-      </c>
-      <c r="AI12" s="8" t="s">
-        <v>2140</v>
-      </c>
-      <c r="AJ12" s="8" t="s">
-        <v>2159</v>
-      </c>
-    </row>
-    <row r="13" spans="1:36" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>1885</v>
       </c>
@@ -24424,7 +23913,7 @@
         <v>1734</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>2142</v>
+        <v>2140</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>1920</v>
@@ -24448,7 +23937,7 @@
         <v>1965</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>2143</v>
+        <v>2141</v>
       </c>
       <c r="N13" s="8" t="s">
         <v>1923</v>
@@ -24462,64 +23951,13 @@
       <c r="Q13" s="8" t="s">
         <v>1992</v>
       </c>
-      <c r="T13" s="3" t="s">
-        <v>1885</v>
-      </c>
-      <c r="U13" s="8" t="s">
-        <v>2017</v>
-      </c>
-      <c r="V13" s="8" t="s">
-        <v>1732</v>
-      </c>
-      <c r="W13" s="8" t="s">
-        <v>1734</v>
-      </c>
-      <c r="X13" s="8" t="s">
-        <v>2138</v>
-      </c>
-      <c r="Y13" s="8" t="s">
-        <v>1920</v>
-      </c>
-      <c r="Z13" s="8" t="s">
-        <v>1783</v>
-      </c>
-      <c r="AA13" s="8" t="s">
-        <v>1991</v>
-      </c>
-      <c r="AB13" s="8" t="s">
-        <v>1991</v>
-      </c>
-      <c r="AC13" s="8" t="s">
-        <v>1921</v>
-      </c>
-      <c r="AD13" s="8" t="s">
-        <v>2018</v>
-      </c>
-      <c r="AE13" s="8" t="s">
-        <v>1965</v>
-      </c>
-      <c r="AF13" s="8" t="s">
-        <v>2240</v>
-      </c>
-      <c r="AG13" s="8" t="s">
-        <v>1923</v>
-      </c>
-      <c r="AH13" s="8" t="s">
-        <v>2019</v>
-      </c>
-      <c r="AI13" s="8" t="s">
-        <v>1992</v>
-      </c>
-      <c r="AJ13" s="8" t="s">
-        <v>1992</v>
-      </c>
-    </row>
-    <row r="14" spans="1:36" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>1886</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>1735</v>
@@ -24540,7 +23978,7 @@
         <v>2004</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>2117</v>
+        <v>2115</v>
       </c>
       <c r="J14" s="8" t="s">
         <v>2005</v>
@@ -24552,60 +23990,17 @@
         <v>2006</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>2116</v>
+        <v>2114</v>
       </c>
       <c r="N14" s="24"/>
       <c r="O14" s="25"/>
       <c r="P14" s="25"/>
       <c r="Q14" s="11"/>
-      <c r="T14" s="3" t="s">
-        <v>1886</v>
-      </c>
-      <c r="U14" s="8" t="s">
-        <v>2001</v>
-      </c>
-      <c r="V14" s="8" t="s">
-        <v>1735</v>
-      </c>
-      <c r="W14" s="8" t="s">
-        <v>2002</v>
-      </c>
-      <c r="X14" s="8" t="s">
-        <v>2147</v>
-      </c>
-      <c r="Y14" s="8" t="s">
-        <v>2003</v>
-      </c>
-      <c r="Z14" s="8" t="s">
-        <v>1787</v>
-      </c>
-      <c r="AA14" s="8" t="s">
-        <v>2004</v>
-      </c>
-      <c r="AB14" s="8" t="s">
-        <v>2152</v>
-      </c>
-      <c r="AC14" s="8" t="s">
-        <v>2005</v>
-      </c>
-      <c r="AD14" s="8" t="s">
-        <v>1818</v>
-      </c>
-      <c r="AE14" s="8" t="s">
-        <v>2006</v>
-      </c>
-      <c r="AF14" s="8" t="s">
-        <v>2157</v>
-      </c>
-      <c r="AG14" s="24"/>
-      <c r="AH14" s="25"/>
-      <c r="AI14" s="25"/>
-      <c r="AJ14" s="11"/>
-    </row>
-    <row r="15" spans="1:36" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:17" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="8" t="s">
-        <v>2217</v>
+        <v>2215</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>1741</v>
@@ -24638,58 +24033,17 @@
         <v>2012</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>2144</v>
+        <v>2142</v>
       </c>
       <c r="N15" s="24"/>
       <c r="O15" s="25"/>
       <c r="P15" s="25"/>
       <c r="Q15" s="11"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="8" t="s">
-        <v>2007</v>
-      </c>
-      <c r="V15" s="8" t="s">
-        <v>1741</v>
-      </c>
-      <c r="W15" s="8" t="s">
-        <v>2008</v>
-      </c>
-      <c r="X15" s="8" t="s">
-        <v>2230</v>
-      </c>
-      <c r="Y15" s="8" t="s">
-        <v>2009</v>
-      </c>
-      <c r="Z15" s="8" t="s">
-        <v>1791</v>
-      </c>
-      <c r="AA15" s="8" t="s">
-        <v>2010</v>
-      </c>
-      <c r="AB15" s="8" t="s">
-        <v>2010</v>
-      </c>
-      <c r="AC15" s="8" t="s">
-        <v>2011</v>
-      </c>
-      <c r="AD15" s="8" t="s">
-        <v>1925</v>
-      </c>
-      <c r="AE15" s="8" t="s">
-        <v>2012</v>
-      </c>
-      <c r="AF15" s="8" t="s">
-        <v>2158</v>
-      </c>
-      <c r="AG15" s="24"/>
-      <c r="AH15" s="25"/>
-      <c r="AI15" s="25"/>
-      <c r="AJ15" s="11"/>
-    </row>
-    <row r="16" spans="1:36" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="8" t="s">
-        <v>2166</v>
+        <v>2164</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>1738</v>
@@ -24710,7 +24064,7 @@
         <v>2016</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>2118</v>
+        <v>2116</v>
       </c>
       <c r="J16" s="24"/>
       <c r="K16" s="25"/>
@@ -24720,124 +24074,94 @@
       <c r="O16" s="11"/>
       <c r="P16" s="11"/>
       <c r="Q16" s="11"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="8" t="s">
-        <v>2013</v>
-      </c>
-      <c r="V16" s="8" t="s">
-        <v>1738</v>
-      </c>
-      <c r="W16" s="8" t="s">
-        <v>2014</v>
-      </c>
-      <c r="X16" s="8" t="s">
-        <v>2231</v>
-      </c>
-      <c r="Y16" s="8" t="s">
-        <v>2015</v>
-      </c>
-      <c r="Z16" s="8" t="s">
-        <v>1842</v>
-      </c>
-      <c r="AA16" s="8" t="s">
-        <v>2016</v>
-      </c>
-      <c r="AB16" s="8" t="s">
-        <v>2153</v>
-      </c>
-      <c r="AC16" s="24"/>
-      <c r="AD16" s="25"/>
-      <c r="AE16" s="25"/>
-      <c r="AF16" s="12"/>
-      <c r="AG16" s="11"/>
-      <c r="AH16" s="11"/>
-      <c r="AI16" s="11"/>
-      <c r="AJ16" s="11"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B19" s="22" t="s">
-        <v>2134</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B20" s="13" t="s">
-        <v>2119</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B21" s="14" t="s">
-        <v>2120</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:18" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="26" t="s">
+        <v>2118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:17" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="26" t="s">
+        <v>2090</v>
+      </c>
+      <c r="C26" s="28"/>
+      <c r="D26" s="26" t="s">
+        <v>2091</v>
+      </c>
+      <c r="E26" s="28"/>
+      <c r="F26" s="26" t="s">
         <v>2092</v>
       </c>
-      <c r="D26" s="28"/>
-      <c r="E26" s="26" t="s">
+      <c r="G26" s="28"/>
+      <c r="H26" s="26" t="s">
         <v>2093</v>
       </c>
-      <c r="F26" s="28"/>
-      <c r="G26" s="26" t="s">
+      <c r="I26" s="28"/>
+      <c r="J26" s="26" t="s">
         <v>2094</v>
       </c>
-      <c r="H26" s="28"/>
-      <c r="I26" s="26" t="s">
+      <c r="K26" s="28"/>
+      <c r="L26" s="16" t="s">
+        <v>2096</v>
+      </c>
+      <c r="M26" s="21" t="s">
+        <v>2098</v>
+      </c>
+      <c r="N26" s="26" t="s">
         <v>2095</v>
       </c>
-      <c r="J26" s="28"/>
-      <c r="K26" s="26" t="s">
-        <v>2096</v>
-      </c>
-      <c r="L26" s="28"/>
-      <c r="M26" s="16" t="s">
-        <v>2098</v>
-      </c>
-      <c r="N26" s="21" t="s">
+      <c r="O26" s="28"/>
+      <c r="P26" s="21" t="s">
         <v>2100</v>
       </c>
-      <c r="O26" s="26" t="s">
-        <v>2097</v>
-      </c>
-      <c r="P26" s="28"/>
       <c r="Q26" s="21" t="s">
-        <v>2102</v>
-      </c>
-      <c r="R26" s="21" t="s">
-        <v>2106</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B27" s="6" t="s">
+        <v>1996</v>
+      </c>
       <c r="C27" s="6" t="s">
+        <v>1997</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>1996</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="E27" s="6" t="s">
         <v>1997</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="F27" s="6" t="s">
         <v>1996</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="G27" s="6" t="s">
         <v>1997</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="H27" s="6" t="s">
         <v>1996</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="I27" s="6" t="s">
         <v>1997</v>
       </c>
-      <c r="I27" s="6" t="s">
+      <c r="J27" s="6" t="s">
         <v>1996</v>
       </c>
-      <c r="J27" s="6" t="s">
+      <c r="K27" s="6" t="s">
         <v>1997</v>
       </c>
-      <c r="K27" s="6" t="s">
+      <c r="L27" s="6" t="s">
         <v>1996</v>
-      </c>
-      <c r="L27" s="6" t="s">
-        <v>1997</v>
       </c>
       <c r="M27" s="6" t="s">
         <v>1996</v>
@@ -24846,48 +24170,48 @@
         <v>1996</v>
       </c>
       <c r="O27" s="6" t="s">
+        <v>1997</v>
+      </c>
+      <c r="P27" s="6" t="s">
         <v>1996</v>
-      </c>
-      <c r="P27" s="6" t="s">
-        <v>1997</v>
       </c>
       <c r="Q27" s="6" t="s">
         <v>1996</v>
       </c>
-      <c r="R27" s="6" t="s">
-        <v>1996</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="7" t="s">
+        <v>1998</v>
+      </c>
       <c r="C28" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="7" t="s">
         <v>1998</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="E28" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="F28" s="7" t="s">
         <v>1998</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="H28" s="7" t="s">
         <v>1998</v>
       </c>
-      <c r="H28" s="7" t="s">
+      <c r="I28" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I28" s="7" t="s">
+      <c r="J28" s="7" t="s">
         <v>1998</v>
       </c>
-      <c r="J28" s="7" t="s">
+      <c r="K28" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>1998</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>0</v>
       </c>
       <c r="M28" s="7" t="s">
         <v>1998</v>
@@ -24896,217 +24220,201 @@
         <v>1998</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>1998</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>0</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>1998</v>
       </c>
-      <c r="R28" s="7" t="s">
-        <v>1998</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="31" t="s">
+    </row>
+    <row r="29" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="32" t="s">
         <v>2043</v>
       </c>
-      <c r="B29" s="31" t="s">
-        <v>2048</v>
+      <c r="B29" s="19" t="s">
+        <v>2089</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>2091</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>2053</v>
-      </c>
+        <v>2051</v>
+      </c>
+      <c r="D29" s="19"/>
       <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
+      <c r="F29" s="19" t="s">
+        <v>2056</v>
+      </c>
       <c r="G29" s="19" t="s">
-        <v>2058</v>
-      </c>
-      <c r="H29" s="19" t="s">
-        <v>2064</v>
-      </c>
+        <v>2062</v>
+      </c>
+      <c r="H29" s="19"/>
       <c r="I29" s="19"/>
       <c r="J29" s="19"/>
       <c r="K29" s="19"/>
       <c r="L29" s="19"/>
       <c r="M29" s="19"/>
-      <c r="N29" s="19"/>
+      <c r="N29" s="19" t="s">
+        <v>2083</v>
+      </c>
       <c r="O29" s="19" t="s">
-        <v>2085</v>
-      </c>
-      <c r="P29" s="19" t="s">
-        <v>2088</v>
-      </c>
-      <c r="Q29" s="19"/>
-      <c r="R29" s="20" t="s">
-        <v>2104</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="32"/>
-      <c r="B30" s="32"/>
+        <v>2086</v>
+      </c>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="20" t="s">
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="33"/>
+      <c r="B30" s="19" t="s">
+        <v>2048</v>
+      </c>
       <c r="C30" s="19" t="s">
-        <v>2050</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>2054</v>
-      </c>
+        <v>2052</v>
+      </c>
+      <c r="D30" s="19"/>
       <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
+      <c r="F30" s="19" t="s">
+        <v>2057</v>
+      </c>
       <c r="G30" s="19" t="s">
-        <v>2059</v>
-      </c>
-      <c r="H30" s="19" t="s">
-        <v>2065</v>
-      </c>
+        <v>2063</v>
+      </c>
+      <c r="H30" s="19"/>
       <c r="I30" s="19"/>
       <c r="J30" s="19"/>
       <c r="K30" s="19"/>
       <c r="L30" s="19"/>
       <c r="M30" s="19"/>
-      <c r="N30" s="19"/>
+      <c r="N30" s="19" t="s">
+        <v>2084</v>
+      </c>
       <c r="O30" s="19" t="s">
-        <v>2086</v>
-      </c>
-      <c r="P30" s="19" t="s">
-        <v>2089</v>
-      </c>
+        <v>2087</v>
+      </c>
+      <c r="P30" s="19"/>
       <c r="Q30" s="19"/>
-      <c r="R30" s="19"/>
-    </row>
-    <row r="31" spans="1:18" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="31" t="s">
+    </row>
+    <row r="31" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="32" t="s">
         <v>2044</v>
       </c>
-      <c r="B31" s="31" t="s">
-        <v>2048</v>
-      </c>
+      <c r="B31" s="19"/>
       <c r="C31" s="19"/>
       <c r="D31" s="19"/>
       <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
+      <c r="F31" s="19" t="s">
+        <v>2058</v>
+      </c>
       <c r="G31" s="19" t="s">
-        <v>2060</v>
+        <v>2064</v>
       </c>
       <c r="H31" s="19" t="s">
-        <v>2066</v>
+        <v>2069</v>
       </c>
       <c r="I31" s="19" t="s">
-        <v>2071</v>
+        <v>2073</v>
       </c>
       <c r="J31" s="19" t="s">
-        <v>2075</v>
+        <v>2077</v>
       </c>
       <c r="K31" s="19" t="s">
-        <v>2079</v>
-      </c>
-      <c r="L31" s="19" t="s">
-        <v>2082</v>
-      </c>
+        <v>2080</v>
+      </c>
+      <c r="L31" s="19"/>
       <c r="M31" s="19"/>
       <c r="N31" s="19"/>
       <c r="O31" s="19"/>
       <c r="P31" s="19"/>
       <c r="Q31" s="19"/>
-      <c r="R31" s="19"/>
-    </row>
-    <row r="32" spans="1:18" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="32"/>
-      <c r="B32" s="32"/>
+    </row>
+    <row r="32" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="33"/>
+      <c r="B32" s="19"/>
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
+      <c r="F32" s="19" t="s">
+        <v>2059</v>
+      </c>
       <c r="G32" s="19" t="s">
-        <v>2061</v>
+        <v>2065</v>
       </c>
       <c r="H32" s="19" t="s">
-        <v>2067</v>
+        <v>2070</v>
       </c>
       <c r="I32" s="19" t="s">
-        <v>2072</v>
+        <v>2074</v>
       </c>
       <c r="J32" s="19" t="s">
-        <v>2076</v>
+        <v>2078</v>
       </c>
       <c r="K32" s="19" t="s">
-        <v>2080</v>
-      </c>
-      <c r="L32" s="19" t="s">
-        <v>2083</v>
-      </c>
+        <v>2081</v>
+      </c>
+      <c r="L32" s="19"/>
       <c r="M32" s="19"/>
       <c r="N32" s="19"/>
       <c r="O32" s="19"/>
       <c r="P32" s="19"/>
       <c r="Q32" s="19"/>
-      <c r="R32" s="19"/>
-    </row>
-    <row r="33" spans="1:18" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="31" t="s">
+    </row>
+    <row r="33" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="32" t="s">
         <v>2045</v>
       </c>
-      <c r="B33" s="17" t="s">
-        <v>2048</v>
-      </c>
+      <c r="B33" s="19"/>
       <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
+      <c r="D33" s="19" t="s">
+        <v>2054</v>
+      </c>
       <c r="E33" s="19" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="F33" s="19" t="s">
-        <v>2057</v>
+        <v>2049</v>
       </c>
       <c r="G33" s="19" t="s">
-        <v>2051</v>
+        <v>2066</v>
       </c>
       <c r="H33" s="19" t="s">
-        <v>2068</v>
+        <v>2071</v>
       </c>
       <c r="I33" s="19" t="s">
-        <v>2073</v>
+        <v>2075</v>
       </c>
       <c r="J33" s="19" t="s">
-        <v>2077</v>
+        <v>2079</v>
       </c>
       <c r="K33" s="19" t="s">
-        <v>2081</v>
-      </c>
-      <c r="L33" s="19" t="s">
-        <v>2084</v>
-      </c>
+        <v>2082</v>
+      </c>
+      <c r="L33" s="19"/>
       <c r="M33" s="19"/>
-      <c r="N33" s="19"/>
+      <c r="N33" s="19" t="s">
+        <v>2085</v>
+      </c>
       <c r="O33" s="19" t="s">
-        <v>2087</v>
-      </c>
-      <c r="P33" s="19" t="s">
-        <v>2090</v>
-      </c>
+        <v>2088</v>
+      </c>
+      <c r="P33" s="19"/>
       <c r="Q33" s="19"/>
-      <c r="R33" s="19"/>
-    </row>
-    <row r="34" spans="1:18" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="32"/>
-      <c r="B34" s="17" t="s">
-        <v>2049</v>
-      </c>
+    </row>
+    <row r="34" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="33"/>
+      <c r="B34" s="19"/>
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
       <c r="E34" s="19"/>
       <c r="F34" s="19"/>
       <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
+      <c r="H34" s="19" t="s">
+        <v>2072</v>
+      </c>
       <c r="I34" s="19" t="s">
-        <v>2074</v>
-      </c>
-      <c r="J34" s="19" t="s">
-        <v>2078</v>
-      </c>
+        <v>2076</v>
+      </c>
+      <c r="J34" s="19"/>
       <c r="K34" s="19"/>
       <c r="L34" s="19"/>
       <c r="M34" s="19"/>
@@ -25114,29 +24422,26 @@
       <c r="O34" s="19"/>
       <c r="P34" s="19"/>
       <c r="Q34" s="19"/>
-      <c r="R34" s="19"/>
-    </row>
-    <row r="35" spans="1:18" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:17" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="18" t="s">
         <v>2046</v>
       </c>
-      <c r="B35" s="17" t="s">
-        <v>2049</v>
+      <c r="B35" s="19" t="s">
+        <v>2050</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>2052</v>
-      </c>
-      <c r="D35" s="19" t="s">
-        <v>2055</v>
-      </c>
+        <v>2053</v>
+      </c>
+      <c r="D35" s="19"/>
       <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
+      <c r="F35" s="19" t="s">
+        <v>2060</v>
+      </c>
       <c r="G35" s="19" t="s">
-        <v>2062</v>
-      </c>
-      <c r="H35" s="19" t="s">
-        <v>2069</v>
-      </c>
+        <v>2067</v>
+      </c>
+      <c r="H35" s="19"/>
       <c r="I35" s="19"/>
       <c r="J35" s="19"/>
       <c r="K35" s="19"/>
@@ -25146,60 +24451,56 @@
       <c r="O35" s="19"/>
       <c r="P35" s="19"/>
       <c r="Q35" s="19"/>
-      <c r="R35" s="19"/>
-    </row>
-    <row r="36" spans="1:18" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:17" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="17" t="s">
         <v>2047</v>
       </c>
-      <c r="B36" s="17" t="s">
-        <v>2049</v>
-      </c>
+      <c r="B36" s="19"/>
       <c r="C36" s="19"/>
       <c r="D36" s="19"/>
       <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
+      <c r="F36" s="19" t="s">
+        <v>2061</v>
+      </c>
       <c r="G36" s="19" t="s">
-        <v>2063</v>
-      </c>
-      <c r="H36" s="19" t="s">
-        <v>2070</v>
-      </c>
+        <v>2068</v>
+      </c>
+      <c r="H36" s="19"/>
       <c r="I36" s="19"/>
       <c r="J36" s="19"/>
       <c r="K36" s="19"/>
-      <c r="L36" s="19"/>
+      <c r="L36" s="20" t="s">
+        <v>2097</v>
+      </c>
       <c r="M36" s="20" t="s">
         <v>2099</v>
       </c>
-      <c r="N36" s="20" t="s">
+      <c r="N36" s="19"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="20" t="s">
         <v>2101</v>
       </c>
-      <c r="O36" s="19"/>
-      <c r="P36" s="19"/>
-      <c r="Q36" s="20" t="s">
-        <v>2103</v>
-      </c>
-      <c r="R36" s="20"/>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q36" s="20"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B39" s="14" t="s">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B40" s="14" t="s">
         <v>2107</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B40" s="14" t="s">
-        <v>2109</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B41" s="14" t="s">
-        <v>2108</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B42" s="14" t="s">
-        <v>2121</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="51" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -25710,7 +25011,7 @@
         <v>1918</v>
       </c>
       <c r="P63" s="8" t="s">
-        <v>2140</v>
+        <v>2138</v>
       </c>
       <c r="Q63" s="8" t="s">
         <v>1990</v>
@@ -25894,7 +25195,7 @@
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B69" s="22" t="s">
-        <v>2162</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
@@ -26082,7 +25383,7 @@
         <v>1794</v>
       </c>
       <c r="M80" s="8" t="s">
-        <v>2132</v>
+        <v>2130</v>
       </c>
       <c r="N80" s="10"/>
       <c r="O80" s="11"/>
@@ -26115,7 +25416,7 @@
         <v>1765</v>
       </c>
       <c r="I81" s="8" t="s">
-        <v>2131</v>
+        <v>2129</v>
       </c>
       <c r="J81" s="8" t="s">
         <v>1892</v>
@@ -26127,7 +25428,7 @@
         <v>1797</v>
       </c>
       <c r="M81" s="8" t="s">
-        <v>2133</v>
+        <v>2131</v>
       </c>
       <c r="N81" s="8" t="s">
         <v>1893</v>
@@ -26221,7 +25522,7 @@
         <v>1947</v>
       </c>
       <c r="I83" s="8" t="s">
-        <v>2124</v>
+        <v>2122</v>
       </c>
       <c r="J83" s="8" t="s">
         <v>1904</v>
@@ -26233,7 +25534,7 @@
         <v>1957</v>
       </c>
       <c r="M83" s="8" t="s">
-        <v>2130</v>
+        <v>2128</v>
       </c>
       <c r="N83" s="24"/>
       <c r="O83" s="25"/>
@@ -26270,7 +25571,7 @@
         <v>1959</v>
       </c>
       <c r="M84" s="8" t="s">
-        <v>2129</v>
+        <v>2127</v>
       </c>
       <c r="N84" s="24"/>
       <c r="O84" s="25"/>
@@ -26303,7 +25604,7 @@
         <v>1943</v>
       </c>
       <c r="I85" s="8" t="s">
-        <v>2125</v>
+        <v>2123</v>
       </c>
       <c r="J85" s="24"/>
       <c r="K85" s="25"/>
@@ -26340,7 +25641,7 @@
         <v>1981</v>
       </c>
       <c r="I86" s="8" t="s">
-        <v>2126</v>
+        <v>2124</v>
       </c>
       <c r="J86" s="24"/>
       <c r="K86" s="25"/>
@@ -26404,7 +25705,7 @@
         <v>1949</v>
       </c>
       <c r="I88" s="8" t="s">
-        <v>2145</v>
+        <v>2143</v>
       </c>
       <c r="J88" s="8" t="s">
         <v>1916</v>
@@ -26416,7 +25717,7 @@
         <v>1961</v>
       </c>
       <c r="M88" s="8" t="s">
-        <v>2128</v>
+        <v>2126</v>
       </c>
       <c r="N88" s="8" t="s">
         <v>1917</v>
@@ -26425,10 +25726,10 @@
         <v>1918</v>
       </c>
       <c r="P88" s="8" t="s">
-        <v>2140</v>
+        <v>2138</v>
       </c>
       <c r="Q88" s="8" t="s">
-        <v>2140</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="89" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -26445,7 +25746,7 @@
         <v>1734</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>2142</v>
+        <v>2140</v>
       </c>
       <c r="F89" s="8" t="s">
         <v>1920</v>
@@ -26469,7 +25770,7 @@
         <v>1965</v>
       </c>
       <c r="M89" s="8" t="s">
-        <v>2146</v>
+        <v>2144</v>
       </c>
       <c r="N89" s="8" t="s">
         <v>1923</v>
@@ -26553,7 +25854,7 @@
         <v>2010</v>
       </c>
       <c r="I91" s="23" t="s">
-        <v>2127</v>
+        <v>2125</v>
       </c>
       <c r="J91" s="8" t="s">
         <v>2011</v>
@@ -26609,22 +25910,22 @@
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B94" s="22" t="s">
-        <v>2163</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B95" s="13" t="s">
-        <v>2165</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B96" s="13" t="s">
-        <v>2122</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B97" s="14" t="s">
-        <v>2123</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.25">
@@ -26762,7 +26063,7 @@
         <v>1884</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>2167</v>
+        <v>2165</v>
       </c>
       <c r="C105" s="8" t="s">
         <v>1926</v>
@@ -26786,13 +26087,13 @@
         <v>2034</v>
       </c>
       <c r="J105" s="8" t="s">
-        <v>2168</v>
+        <v>2166</v>
       </c>
       <c r="K105" s="8" t="s">
-        <v>2132</v>
+        <v>2130</v>
       </c>
       <c r="L105" s="8" t="s">
-        <v>2132</v>
+        <v>2130</v>
       </c>
       <c r="M105" s="8" t="s">
         <v>2035</v>
@@ -26807,10 +26108,10 @@
         <v>1885</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>2169</v>
+        <v>2167</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>2170</v>
+        <v>2168</v>
       </c>
       <c r="D106" s="8" t="s">
         <v>1932</v>
@@ -26819,34 +26120,34 @@
         <v>1932</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>2171</v>
+        <v>2169</v>
       </c>
       <c r="G106" s="8" t="s">
-        <v>2131</v>
+        <v>2129</v>
       </c>
       <c r="H106" s="8" t="s">
-        <v>2131</v>
+        <v>2129</v>
       </c>
       <c r="I106" s="8" t="s">
         <v>2033</v>
       </c>
       <c r="J106" s="8" t="s">
-        <v>2172</v>
+        <v>2170</v>
       </c>
       <c r="K106" s="8" t="s">
-        <v>2133</v>
+        <v>2131</v>
       </c>
       <c r="L106" s="8" t="s">
-        <v>2133</v>
+        <v>2131</v>
       </c>
       <c r="M106" s="8" t="s">
         <v>2036</v>
       </c>
       <c r="N106" s="8" t="s">
-        <v>2173</v>
+        <v>2171</v>
       </c>
       <c r="O106" s="8" t="s">
-        <v>2174</v>
+        <v>2172</v>
       </c>
       <c r="P106" s="8" t="s">
         <v>1970</v>
@@ -26860,10 +26161,10 @@
         <v>1886</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>2175</v>
+        <v>2173</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>2176</v>
+        <v>2174</v>
       </c>
       <c r="D107" s="8" t="s">
         <v>1944</v>
@@ -26872,7 +26173,7 @@
         <v>1944</v>
       </c>
       <c r="F107" s="8" t="s">
-        <v>2177</v>
+        <v>2175</v>
       </c>
       <c r="G107" s="8" t="s">
         <v>1944</v>
@@ -26884,22 +26185,22 @@
         <v>1944</v>
       </c>
       <c r="J107" s="8" t="s">
+        <v>2176</v>
+      </c>
+      <c r="K107" s="8" t="s">
+        <v>2159</v>
+      </c>
+      <c r="L107" s="8" t="s">
+        <v>2159</v>
+      </c>
+      <c r="M107" s="8" t="s">
+        <v>2159</v>
+      </c>
+      <c r="N107" s="8" t="s">
+        <v>2177</v>
+      </c>
+      <c r="O107" s="8" t="s">
         <v>2178</v>
-      </c>
-      <c r="K107" s="8" t="s">
-        <v>2161</v>
-      </c>
-      <c r="L107" s="8" t="s">
-        <v>2161</v>
-      </c>
-      <c r="M107" s="8" t="s">
-        <v>2161</v>
-      </c>
-      <c r="N107" s="8" t="s">
-        <v>2179</v>
-      </c>
-      <c r="O107" s="8" t="s">
-        <v>2180</v>
       </c>
       <c r="P107" s="8" t="s">
         <v>1971</v>
@@ -26925,28 +26226,28 @@
         <v>2038</v>
       </c>
       <c r="F108" s="8" t="s">
+        <v>2179</v>
+      </c>
+      <c r="G108" s="8" t="s">
+        <v>2180</v>
+      </c>
+      <c r="H108" s="8" t="s">
+        <v>2122</v>
+      </c>
+      <c r="I108" s="8" t="s">
+        <v>2122</v>
+      </c>
+      <c r="J108" s="8" t="s">
         <v>2181</v>
       </c>
-      <c r="G108" s="8" t="s">
+      <c r="K108" s="8" t="s">
         <v>2182</v>
       </c>
-      <c r="H108" s="8" t="s">
-        <v>2124</v>
-      </c>
-      <c r="I108" s="8" t="s">
-        <v>2124</v>
-      </c>
-      <c r="J108" s="8" t="s">
-        <v>2183</v>
-      </c>
-      <c r="K108" s="8" t="s">
-        <v>2184</v>
-      </c>
       <c r="L108" s="8" t="s">
-        <v>2130</v>
+        <v>2128</v>
       </c>
       <c r="M108" s="8" t="s">
-        <v>2130</v>
+        <v>2128</v>
       </c>
       <c r="N108" s="24"/>
       <c r="O108" s="25"/>
@@ -26958,7 +26259,7 @@
         <v>1901</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>2185</v>
+        <v>2183</v>
       </c>
       <c r="C109" s="8" t="s">
         <v>1977</v>
@@ -26974,16 +26275,16 @@
       <c r="H109" s="25"/>
       <c r="I109" s="11"/>
       <c r="J109" s="8" t="s">
-        <v>2186</v>
+        <v>2184</v>
       </c>
       <c r="K109" s="8" t="s">
-        <v>2187</v>
+        <v>2185</v>
       </c>
       <c r="L109" s="8" t="s">
-        <v>2129</v>
+        <v>2127</v>
       </c>
       <c r="M109" s="8" t="s">
-        <v>2129</v>
+        <v>2127</v>
       </c>
       <c r="N109" s="24"/>
       <c r="O109" s="25"/>
@@ -26995,28 +26296,28 @@
         <v>1885</v>
       </c>
       <c r="B110" s="8" t="s">
+        <v>2186</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>2187</v>
+      </c>
+      <c r="D110" s="8" t="s">
         <v>2188</v>
-      </c>
-      <c r="C110" s="8" t="s">
-        <v>2189</v>
-      </c>
-      <c r="D110" s="8" t="s">
-        <v>2190</v>
       </c>
       <c r="E110" s="8" t="s">
         <v>2040</v>
       </c>
       <c r="F110" s="8" t="s">
+        <v>2189</v>
+      </c>
+      <c r="G110" s="8" t="s">
+        <v>2190</v>
+      </c>
+      <c r="H110" s="8" t="s">
         <v>2191</v>
       </c>
-      <c r="G110" s="8" t="s">
-        <v>2192</v>
-      </c>
-      <c r="H110" s="8" t="s">
-        <v>2193</v>
-      </c>
       <c r="I110" s="8" t="s">
-        <v>2125</v>
+        <v>2123</v>
       </c>
       <c r="J110" s="24"/>
       <c r="K110" s="25"/>
@@ -27032,28 +26333,28 @@
         <v>1886</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>2194</v>
+        <v>2192</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
       <c r="E111" s="8" t="s">
         <v>2041</v>
       </c>
       <c r="F111" s="8" t="s">
-        <v>2196</v>
+        <v>2194</v>
       </c>
       <c r="G111" s="8" t="s">
-        <v>2197</v>
+        <v>2195</v>
       </c>
       <c r="H111" s="8" t="s">
         <v>1981</v>
       </c>
       <c r="I111" s="8" t="s">
-        <v>2126</v>
+        <v>2124</v>
       </c>
       <c r="J111" s="24"/>
       <c r="K111" s="25"/>
@@ -27067,10 +26368,10 @@
     <row r="112" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="4"/>
       <c r="B112" s="8" t="s">
-        <v>2198</v>
+        <v>2196</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>2199</v>
+        <v>2197</v>
       </c>
       <c r="D112" s="8" t="s">
         <v>1974</v>
@@ -27096,7 +26397,7 @@
         <v>1913</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
       <c r="C113" s="8" t="s">
         <v>1986</v>
@@ -27108,40 +26409,40 @@
         <v>1994</v>
       </c>
       <c r="F113" s="8" t="s">
+        <v>2199</v>
+      </c>
+      <c r="G113" s="8" t="s">
+        <v>2200</v>
+      </c>
+      <c r="H113" s="8" t="s">
+        <v>2143</v>
+      </c>
+      <c r="I113" s="8" t="s">
+        <v>2143</v>
+      </c>
+      <c r="J113" s="8" t="s">
         <v>2201</v>
       </c>
-      <c r="G113" s="8" t="s">
+      <c r="K113" s="8" t="s">
         <v>2202</v>
       </c>
-      <c r="H113" s="8" t="s">
-        <v>2145</v>
-      </c>
-      <c r="I113" s="8" t="s">
-        <v>2145</v>
-      </c>
-      <c r="J113" s="8" t="s">
+      <c r="L113" s="8" t="s">
+        <v>2126</v>
+      </c>
+      <c r="M113" s="8" t="s">
+        <v>2126</v>
+      </c>
+      <c r="N113" s="8" t="s">
         <v>2203</v>
       </c>
-      <c r="K113" s="8" t="s">
+      <c r="O113" s="8" t="s">
         <v>2204</v>
       </c>
-      <c r="L113" s="8" t="s">
-        <v>2128</v>
-      </c>
-      <c r="M113" s="8" t="s">
-        <v>2128</v>
-      </c>
-      <c r="N113" s="8" t="s">
-        <v>2205</v>
-      </c>
-      <c r="O113" s="8" t="s">
-        <v>2206</v>
-      </c>
       <c r="P113" s="8" t="s">
-        <v>2140</v>
+        <v>2138</v>
       </c>
       <c r="Q113" s="8" t="s">
-        <v>2140</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="114" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -27152,16 +26453,16 @@
         <v>2017</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>2142</v>
+        <v>2140</v>
       </c>
       <c r="E114" s="8" t="s">
-        <v>2142</v>
+        <v>2140</v>
       </c>
       <c r="F114" s="8" t="s">
-        <v>2208</v>
+        <v>2206</v>
       </c>
       <c r="G114" s="8" t="s">
         <v>2029</v>
@@ -27173,19 +26474,19 @@
         <v>1991</v>
       </c>
       <c r="J114" s="8" t="s">
-        <v>2209</v>
+        <v>2207</v>
       </c>
       <c r="K114" s="8" t="s">
         <v>2018</v>
       </c>
       <c r="L114" s="8" t="s">
-        <v>2146</v>
+        <v>2144</v>
       </c>
       <c r="M114" s="8" t="s">
-        <v>2146</v>
+        <v>2144</v>
       </c>
       <c r="N114" s="8" t="s">
-        <v>2210</v>
+        <v>2208</v>
       </c>
       <c r="O114" s="8" t="s">
         <v>2019</v>
@@ -27202,10 +26503,10 @@
         <v>1886</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>2212</v>
+        <v>2210</v>
       </c>
       <c r="D115" s="8" t="s">
         <v>2002</v>
@@ -27214,10 +26515,10 @@
         <v>2002</v>
       </c>
       <c r="F115" s="8" t="s">
-        <v>2213</v>
+        <v>2211</v>
       </c>
       <c r="G115" s="8" t="s">
-        <v>2214</v>
+        <v>2212</v>
       </c>
       <c r="H115" s="8" t="s">
         <v>2004</v>
@@ -27226,10 +26527,10 @@
         <v>2004</v>
       </c>
       <c r="J115" s="8" t="s">
-        <v>2215</v>
+        <v>2213</v>
       </c>
       <c r="K115" s="8" t="s">
-        <v>2216</v>
+        <v>2214</v>
       </c>
       <c r="L115" s="8" t="s">
         <v>2006</v>
@@ -27245,10 +26546,10 @@
     <row r="116" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="3"/>
       <c r="B116" s="8" t="s">
-        <v>2217</v>
+        <v>2215</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>2218</v>
+        <v>2216</v>
       </c>
       <c r="D116" s="8" t="s">
         <v>2008</v>
@@ -27257,22 +26558,22 @@
         <v>2008</v>
       </c>
       <c r="F116" s="8" t="s">
-        <v>2219</v>
+        <v>2217</v>
       </c>
       <c r="G116" s="8" t="s">
-        <v>2220</v>
+        <v>2218</v>
       </c>
       <c r="H116" s="8" t="s">
         <v>2010</v>
       </c>
       <c r="I116" s="23" t="s">
-        <v>2127</v>
+        <v>2125</v>
       </c>
       <c r="J116" s="8" t="s">
-        <v>2221</v>
+        <v>2219</v>
       </c>
       <c r="K116" s="8" t="s">
-        <v>2222</v>
+        <v>2220</v>
       </c>
       <c r="L116" s="8" t="s">
         <v>2012</v>
@@ -27288,10 +26589,10 @@
     <row r="117" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="4"/>
       <c r="B117" s="8" t="s">
-        <v>2166</v>
+        <v>2164</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>2223</v>
+        <v>2221</v>
       </c>
       <c r="D117" s="8" t="s">
         <v>2014</v>
@@ -27300,10 +26601,10 @@
         <v>2014</v>
       </c>
       <c r="F117" s="8" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
       <c r="G117" s="8" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
       <c r="H117" s="8" t="s">
         <v>2016</v>
@@ -27322,7 +26623,7 @@
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B119" s="22" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.25">
@@ -27332,27 +26633,27 @@
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B121" s="13" t="s">
-        <v>2122</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B122" s="14" t="s">
-        <v>2123</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="126" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="127" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B127" s="29" t="s">
+    <row r="127" spans="1:17" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B127" s="26" t="s">
         <v>1876</v>
       </c>
-      <c r="C127" s="30"/>
-      <c r="D127" s="30"/>
-      <c r="E127" s="30"/>
-      <c r="F127" s="29" t="s">
+      <c r="C127" s="27"/>
+      <c r="D127" s="27"/>
+      <c r="E127" s="28"/>
+      <c r="F127" s="26" t="s">
         <v>1877</v>
       </c>
-      <c r="G127" s="30"/>
-      <c r="H127" s="30"/>
+      <c r="G127" s="27"/>
+      <c r="H127" s="27"/>
       <c r="I127" s="5"/>
       <c r="J127" s="26" t="s">
         <v>1878</v>
@@ -27369,16 +26670,16 @@
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B128" s="6" t="s">
-        <v>1996</v>
+        <v>1880</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>1997</v>
+        <v>1882</v>
       </c>
       <c r="D128" s="6" t="s">
         <v>1975</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>1983</v>
+        <v>2146</v>
       </c>
       <c r="F128" s="6" t="s">
         <v>1996</v>
@@ -27390,7 +26691,7 @@
         <v>1975</v>
       </c>
       <c r="I128" s="6" t="s">
-        <v>1983</v>
+        <v>2146</v>
       </c>
       <c r="J128" s="6" t="s">
         <v>1996</v>
@@ -27419,10 +26720,10 @@
     </row>
     <row r="129" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B129" s="7" t="s">
-        <v>1998</v>
+        <v>1881</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>0</v>
+        <v>1883</v>
       </c>
       <c r="D129" s="7" t="s">
         <v>2</v>
@@ -27471,7 +26772,7 @@
       <c r="A130" s="2" t="s">
         <v>1884</v>
       </c>
-      <c r="B130" s="8" t="s">
+      <c r="B130" s="9" t="s">
         <v>1887</v>
       </c>
       <c r="C130" s="8" t="s">
@@ -27481,19 +26782,19 @@
         <v>1926</v>
       </c>
       <c r="E130" s="8" t="s">
-        <v>1926</v>
+        <v>2133</v>
       </c>
       <c r="F130" s="8" t="s">
-        <v>1888</v>
+        <v>1999</v>
       </c>
       <c r="G130" s="8" t="s">
         <v>1757</v>
       </c>
       <c r="H130" s="8" t="s">
-        <v>1757</v>
-      </c>
-      <c r="I130" s="8" t="s">
-        <v>2034</v>
+        <v>1993</v>
+      </c>
+      <c r="I130" s="23" t="s">
+        <v>2147</v>
       </c>
       <c r="J130" s="8" t="s">
         <v>1889</v>
@@ -27504,8 +26805,8 @@
       <c r="L130" s="8" t="s">
         <v>1794</v>
       </c>
-      <c r="M130" s="8" t="s">
-        <v>2035</v>
+      <c r="M130" s="23" t="s">
+        <v>2153</v>
       </c>
       <c r="N130" s="10"/>
       <c r="O130" s="11"/>
@@ -27526,7 +26827,7 @@
         <v>1932</v>
       </c>
       <c r="E131" s="8" t="s">
-        <v>1932</v>
+        <v>2134</v>
       </c>
       <c r="F131" s="8" t="s">
         <v>1891</v>
@@ -27537,8 +26838,8 @@
       <c r="H131" s="8" t="s">
         <v>1765</v>
       </c>
-      <c r="I131" s="8" t="s">
-        <v>2033</v>
+      <c r="I131" s="23" t="s">
+        <v>2148</v>
       </c>
       <c r="J131" s="8" t="s">
         <v>1892</v>
@@ -27549,8 +26850,8 @@
       <c r="L131" s="8" t="s">
         <v>1797</v>
       </c>
-      <c r="M131" s="8" t="s">
-        <v>2036</v>
+      <c r="M131" s="23" t="s">
+        <v>2152</v>
       </c>
       <c r="N131" s="8" t="s">
         <v>1893</v>
@@ -27561,8 +26862,8 @@
       <c r="P131" s="8" t="s">
         <v>1970</v>
       </c>
-      <c r="Q131" s="8" t="s">
-        <v>2037</v>
+      <c r="Q131" s="23" t="s">
+        <v>2158</v>
       </c>
     </row>
     <row r="132" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -27570,7 +26871,7 @@
         <v>1886</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>2020</v>
+        <v>2103</v>
       </c>
       <c r="C132" s="8" t="s">
         <v>1895</v>
@@ -27623,7 +26924,7 @@
         <v>1900</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>1995</v>
+        <v>1902</v>
       </c>
       <c r="C133" s="8" t="s">
         <v>1717</v>
@@ -27632,7 +26933,7 @@
         <v>1719</v>
       </c>
       <c r="E133" s="8" t="s">
-        <v>1976</v>
+        <v>2231</v>
       </c>
       <c r="F133" s="8" t="s">
         <v>1903</v>
@@ -27644,7 +26945,7 @@
         <v>1947</v>
       </c>
       <c r="I133" s="8" t="s">
-        <v>1979</v>
+        <v>2230</v>
       </c>
       <c r="J133" s="8" t="s">
         <v>1904</v>
@@ -27656,7 +26957,7 @@
         <v>1957</v>
       </c>
       <c r="M133" s="8" t="s">
-        <v>1982</v>
+        <v>2236</v>
       </c>
       <c r="N133" s="24"/>
       <c r="O133" s="25"/>
@@ -27693,7 +26994,7 @@
         <v>1959</v>
       </c>
       <c r="M134" s="8" t="s">
-        <v>1984</v>
+        <v>2237</v>
       </c>
       <c r="N134" s="24"/>
       <c r="O134" s="25"/>
@@ -27714,7 +27015,7 @@
         <v>1725</v>
       </c>
       <c r="E135" s="8" t="s">
-        <v>2190</v>
+        <v>2232</v>
       </c>
       <c r="F135" s="8" t="s">
         <v>1908</v>
@@ -27726,7 +27027,7 @@
         <v>1943</v>
       </c>
       <c r="I135" s="8" t="s">
-        <v>1980</v>
+        <v>2234</v>
       </c>
       <c r="J135" s="24"/>
       <c r="K135" s="25"/>
@@ -27751,7 +27052,7 @@
         <v>1726</v>
       </c>
       <c r="E136" s="8" t="s">
-        <v>2195</v>
+        <v>2233</v>
       </c>
       <c r="F136" s="8" t="s">
         <v>1910</v>
@@ -27763,7 +27064,7 @@
         <v>1981</v>
       </c>
       <c r="I136" s="8" t="s">
-        <v>1981</v>
+        <v>2235</v>
       </c>
       <c r="J136" s="24"/>
       <c r="K136" s="25"/>
@@ -27815,7 +27116,7 @@
         <v>1731</v>
       </c>
       <c r="E138" s="8" t="s">
-        <v>1994</v>
+        <v>2135</v>
       </c>
       <c r="F138" s="8" t="s">
         <v>1915</v>
@@ -27827,7 +27128,7 @@
         <v>1949</v>
       </c>
       <c r="I138" s="8" t="s">
-        <v>2139</v>
+        <v>2149</v>
       </c>
       <c r="J138" s="8" t="s">
         <v>1916</v>
@@ -27839,7 +27140,7 @@
         <v>1961</v>
       </c>
       <c r="M138" s="8" t="s">
-        <v>2115</v>
+        <v>2154</v>
       </c>
       <c r="N138" s="8" t="s">
         <v>1917</v>
@@ -27848,10 +27149,10 @@
         <v>1918</v>
       </c>
       <c r="P138" s="8" t="s">
-        <v>2140</v>
+        <v>2138</v>
       </c>
       <c r="Q138" s="8" t="s">
-        <v>2140</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="139" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -27859,7 +27160,7 @@
         <v>1885</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>1919</v>
+        <v>2017</v>
       </c>
       <c r="C139" s="8" t="s">
         <v>1732</v>
@@ -27868,7 +27169,7 @@
         <v>1734</v>
       </c>
       <c r="E139" s="8" t="s">
-        <v>2142</v>
+        <v>2136</v>
       </c>
       <c r="F139" s="8" t="s">
         <v>1920</v>
@@ -27877,33 +27178,33 @@
         <v>1783</v>
       </c>
       <c r="H139" s="8" t="s">
-        <v>1951</v>
-      </c>
-      <c r="I139" s="23" t="s">
+        <v>1991</v>
+      </c>
+      <c r="I139" s="8" t="s">
         <v>1991</v>
       </c>
       <c r="J139" s="8" t="s">
         <v>1921</v>
       </c>
       <c r="K139" s="8" t="s">
-        <v>1922</v>
+        <v>2018</v>
       </c>
       <c r="L139" s="8" t="s">
         <v>1965</v>
       </c>
       <c r="M139" s="8" t="s">
-        <v>2143</v>
+        <v>2238</v>
       </c>
       <c r="N139" s="8" t="s">
         <v>1923</v>
       </c>
       <c r="O139" s="8" t="s">
-        <v>1924</v>
+        <v>2019</v>
       </c>
       <c r="P139" s="8" t="s">
         <v>1992</v>
       </c>
-      <c r="Q139" s="23" t="s">
+      <c r="Q139" s="8" t="s">
         <v>1992</v>
       </c>
     </row>
@@ -27921,7 +27222,7 @@
         <v>2002</v>
       </c>
       <c r="E140" s="8" t="s">
-        <v>2002</v>
+        <v>2145</v>
       </c>
       <c r="F140" s="8" t="s">
         <v>2003</v>
@@ -27933,7 +27234,7 @@
         <v>2004</v>
       </c>
       <c r="I140" s="8" t="s">
-        <v>2117</v>
+        <v>2150</v>
       </c>
       <c r="J140" s="8" t="s">
         <v>2005</v>
@@ -27945,7 +27246,7 @@
         <v>2006</v>
       </c>
       <c r="M140" s="8" t="s">
-        <v>2116</v>
+        <v>2155</v>
       </c>
       <c r="N140" s="24"/>
       <c r="O140" s="25"/>
@@ -27964,7 +27265,7 @@
         <v>2008</v>
       </c>
       <c r="E141" s="8" t="s">
-        <v>2008</v>
+        <v>2228</v>
       </c>
       <c r="F141" s="8" t="s">
         <v>2009</v>
@@ -27975,8 +27276,8 @@
       <c r="H141" s="8" t="s">
         <v>2010</v>
       </c>
-      <c r="I141" s="23" t="s">
-        <v>2127</v>
+      <c r="I141" s="8" t="s">
+        <v>2010</v>
       </c>
       <c r="J141" s="8" t="s">
         <v>2011</v>
@@ -27988,7 +27289,7 @@
         <v>2012</v>
       </c>
       <c r="M141" s="8" t="s">
-        <v>2144</v>
+        <v>2156</v>
       </c>
       <c r="N141" s="24"/>
       <c r="O141" s="25"/>
@@ -28007,7 +27308,7 @@
         <v>2014</v>
       </c>
       <c r="E142" s="8" t="s">
-        <v>2014</v>
+        <v>2229</v>
       </c>
       <c r="F142" s="8" t="s">
         <v>2015</v>
@@ -28019,7 +27320,7 @@
         <v>2016</v>
       </c>
       <c r="I142" s="8" t="s">
-        <v>2118</v>
+        <v>2151</v>
       </c>
       <c r="J142" s="24"/>
       <c r="K142" s="25"/>
@@ -28032,7 +27333,7 @@
     </row>
     <row r="144" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B144" s="22" t="s">
-        <v>2226</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.25">
@@ -28047,35 +27348,79 @@
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B147" s="14" t="s">
-        <v>2227</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B148" s="13" t="s">
-        <v>2228</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="149" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B149" s="13" t="s">
-        <v>2229</v>
+        <v>2227</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="113">
-    <mergeCell ref="N140:P140"/>
-    <mergeCell ref="N141:P141"/>
-    <mergeCell ref="J142:L142"/>
-    <mergeCell ref="J136:L136"/>
-    <mergeCell ref="N136:P136"/>
-    <mergeCell ref="F137:H137"/>
-    <mergeCell ref="J137:L137"/>
-    <mergeCell ref="N137:P137"/>
-    <mergeCell ref="N133:P133"/>
-    <mergeCell ref="F134:H134"/>
-    <mergeCell ref="N134:P134"/>
-    <mergeCell ref="J135:L135"/>
-    <mergeCell ref="N135:P135"/>
-    <mergeCell ref="AG1:AJ1"/>
+  <mergeCells count="94">
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="N116:P116"/>
+    <mergeCell ref="J117:L117"/>
+    <mergeCell ref="J111:L111"/>
+    <mergeCell ref="N111:P111"/>
+    <mergeCell ref="F112:H112"/>
+    <mergeCell ref="J112:L112"/>
+    <mergeCell ref="N112:P112"/>
+    <mergeCell ref="N108:P108"/>
+    <mergeCell ref="F109:H109"/>
+    <mergeCell ref="N109:P109"/>
+    <mergeCell ref="J110:L110"/>
+    <mergeCell ref="N110:P110"/>
+    <mergeCell ref="N115:P115"/>
+    <mergeCell ref="J86:L86"/>
+    <mergeCell ref="N86:P86"/>
+    <mergeCell ref="F87:H87"/>
+    <mergeCell ref="J87:L87"/>
+    <mergeCell ref="N87:P87"/>
+    <mergeCell ref="N90:P90"/>
+    <mergeCell ref="N91:P91"/>
+    <mergeCell ref="J92:L92"/>
+    <mergeCell ref="B102:E102"/>
+    <mergeCell ref="F102:H102"/>
+    <mergeCell ref="J102:M102"/>
+    <mergeCell ref="N102:Q102"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="F77:H77"/>
+    <mergeCell ref="J77:M77"/>
+    <mergeCell ref="N77:Q77"/>
+    <mergeCell ref="N83:P83"/>
+    <mergeCell ref="F84:H84"/>
+    <mergeCell ref="N84:P84"/>
+    <mergeCell ref="J85:L85"/>
+    <mergeCell ref="N85:P85"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="J52:M52"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="N14:P14"/>
     <mergeCell ref="B127:E127"/>
     <mergeCell ref="F127:H127"/>
     <mergeCell ref="J127:M127"/>
@@ -28099,82 +27444,19 @@
     <mergeCell ref="F52:H52"/>
     <mergeCell ref="N52:Q52"/>
     <mergeCell ref="J1:M1"/>
-    <mergeCell ref="J52:M52"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="F77:H77"/>
-    <mergeCell ref="J77:M77"/>
-    <mergeCell ref="N77:Q77"/>
-    <mergeCell ref="N83:P83"/>
-    <mergeCell ref="F84:H84"/>
-    <mergeCell ref="N84:P84"/>
-    <mergeCell ref="J85:L85"/>
-    <mergeCell ref="N85:P85"/>
-    <mergeCell ref="J86:L86"/>
-    <mergeCell ref="N86:P86"/>
-    <mergeCell ref="F87:H87"/>
-    <mergeCell ref="J87:L87"/>
-    <mergeCell ref="N87:P87"/>
-    <mergeCell ref="N90:P90"/>
-    <mergeCell ref="N91:P91"/>
-    <mergeCell ref="J92:L92"/>
-    <mergeCell ref="B102:E102"/>
-    <mergeCell ref="F102:H102"/>
-    <mergeCell ref="J102:M102"/>
-    <mergeCell ref="N102:Q102"/>
-    <mergeCell ref="F112:H112"/>
-    <mergeCell ref="J112:L112"/>
-    <mergeCell ref="N112:P112"/>
-    <mergeCell ref="N108:P108"/>
-    <mergeCell ref="F109:H109"/>
-    <mergeCell ref="N109:P109"/>
-    <mergeCell ref="J110:L110"/>
-    <mergeCell ref="N110:P110"/>
-    <mergeCell ref="N115:P115"/>
-    <mergeCell ref="N116:P116"/>
-    <mergeCell ref="J117:L117"/>
-    <mergeCell ref="J111:L111"/>
-    <mergeCell ref="N111:P111"/>
-    <mergeCell ref="AG14:AI14"/>
-    <mergeCell ref="AG15:AI15"/>
-    <mergeCell ref="AC16:AE16"/>
-    <mergeCell ref="Y1:AA1"/>
-    <mergeCell ref="U1:X1"/>
-    <mergeCell ref="AC10:AE10"/>
-    <mergeCell ref="AG10:AI10"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="AC11:AE11"/>
-    <mergeCell ref="AG11:AI11"/>
-    <mergeCell ref="AG7:AI7"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="AG8:AI8"/>
-    <mergeCell ref="AC9:AE9"/>
-    <mergeCell ref="AG9:AI9"/>
-    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="N140:P140"/>
+    <mergeCell ref="N141:P141"/>
+    <mergeCell ref="J142:L142"/>
+    <mergeCell ref="J136:L136"/>
+    <mergeCell ref="N136:P136"/>
+    <mergeCell ref="F137:H137"/>
+    <mergeCell ref="J137:L137"/>
+    <mergeCell ref="N137:P137"/>
+    <mergeCell ref="N133:P133"/>
+    <mergeCell ref="F134:H134"/>
+    <mergeCell ref="N134:P134"/>
+    <mergeCell ref="J135:L135"/>
+    <mergeCell ref="N135:P135"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
